--- a/references/background_data/a1-a3.xlsx
+++ b/references/background_data/a1-a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2D9FF-5BC5-49A3-A305-8E3AD66E4550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861C35C-FD2E-4247-981F-5E6D03DECA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="637">
   <si>
     <t>Name_generic</t>
   </si>
@@ -1927,81 +1927,6 @@
   </si>
   <si>
     <t>Acrylic-based paint for interior applications</t>
-  </si>
-  <si>
-    <t>Paint, enamel, solvent based	kg	"Paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> enamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solvent based"	"Solvent-based enamel paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> appropriate for use on metals"	0.29		0.0308	0.000423	2.61	0.03		8.20E-13	1.94</t>
-  </si>
-  <si>
-    <t>Tulipwood lumber, 1 inch	kg	"Tulipwood lumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 inch"	"Kiln-dried American Tulipwood (yellow or tulip poplar) hardwood lumber of 1"" nominal thickness as produced in the eastern United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> focusing on the main production technologies and the region-specific characteristics. Tulipwood is frequently used for carvings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mouldings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> panelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and cabinets. Link for interactive LCA data tool is provided at the link listed as ""EPD Information""; full LCA report is available at http://naturespackaging.org/wp-content/uploads/2016/02/LifeCycleAssessment-Lumber.pdf."	449	1.6	0.00213	0.000191	0.479	-1.699		2.96E-13	0.0733</t>
-  </si>
-  <si>
-    <t>Stucco, synthetic	kg	"Stucco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> synthetic"	"Acrylic latex stucco layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> typically applied over a PVC lath. Base stucco layer with a default thickness of 3/8"" (9.5 mm)."	975	0	0.00529	0.000371	2.51	0.04		5.28E-11	0.137</t>
-  </si>
-  <si>
-    <t>Paint, interior acrylic latex	kg	"Paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interior acrylic latex"	Acrylic-based paint for interior applications	1235	0	0.0091	0.000475	2.4	0.05		1.34E-12	0.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint, enamel, solvent based	kg	"Paint	 enamel	" solvent based""	""Solvent-based enamel paint"	" appropriate for use on metals""	0.29		0.0308	0.000423	2.61	0.03		8.20E-13	1.94"									</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulipwood lumber, 1 inch	kg	"Tulipwood lumber	" 1 inch""	""Kiln-dried American Tulipwood (yellow or tulip poplar) hardwood lumber of 1"""" nominal thickness as produced in the eastern United States"	 focusing on the main production technologies and the region-specific characteristics. Tulipwood is frequently used for carvings	 mouldings	 furniture	 doors	 panelling	" and cabinets. Link for interactive LCA data tool is provided at the link listed as """"EPD Information""""; full LCA report is available at http://naturespackaging.org/wp-content/uploads/2016/02/LifeCycleAssessment-Lumber.pdf.""	449	1.6	0.00213	0.000191	0.479	-1.699		2.96E-13	0.0733"					</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stucco, synthetic	kg	"Stucco	" synthetic""	""Acrylic latex stucco layer"	" typically applied over a PVC lath. Base stucco layer with a default thickness of 3/8"""" (9.5 mm).""	975	0	0.00529	0.000371	2.51	0.04		5.28E-11	0.137"										</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint, interior acrylic latex	kg	"Paint	" interior acrylic latex""	Acrylic-based paint for interior applications	1235	0	0.0091	0.000475	2.4	0.05		1.34E-12	0.173"											</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283	"Paint	 enamel	" solvent based""	kg	""Paint"	 enamel	" solvent based""	""Solvent-based enamel paint"	" appropriate for use on metals""	0.29		0.0308	0.000423	2.61	0.03		8.2E-13	1.94"																			</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284	"Tulipwood lumber	" 1 inch""	kg	""Tulipwood lumber"	" 1 inch""	""Kiln-dried American Tulipwood (yellow or tulip poplar) hardwood lumber of 1"""" nominal thickness as produced in the eastern United States"	 focusing on the main production technologies and the region-specific characteristics. Tulipwood is frequently used for carvings	 mouldings	 furniture	 doors	 panelling	" and cabinets. Link for interactive LCA data tool is provided at the link listed as """"EPD Information""""; full LCA report is available at http://naturespackaging.org/wp-content/uploads/2016/02/LifeCycleAssessment-Lumber.pdf.""	449	1.6	0.00213	0.000191	0.479	-1.699		2.96E-13	0.0733"																</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285	"Stucco	" synthetic""	kg	""Stucco"	" synthetic""	""Acrylic latex stucco layer"	" typically applied over a PVC lath. Base stucco layer with a default thickness of 3/8"""" (9.5 mm).""	975	0	0.00529	0.000371	2.51	0.04		5.28E-11	0.137"																					</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286	"Paint	" interior acrylic latex""	kg	""Paint"	" interior acrylic latex""	Acrylic-based paint for interior applications	1235	0	0.0091	0.000475	2.4	0.05		1.34E-12	0.173"																						</t>
   </si>
   <si>
     <t>Aluminum storefront system, YKK AP - EPD</t>
@@ -2852,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:M288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,7 +2989,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -3254,7 +3179,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -13544,7 +13469,7 @@
         <v>7.1099999999999997E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>618</v>
       </c>
@@ -13582,7 +13507,7 @@
         <v>0.26806145199999998</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>621</v>
       </c>
@@ -13805,105 +13730,6 @@
       </c>
       <c r="M288">
         <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>635</v>
-      </c>
-      <c r="B289" t="s">
-        <v>636</v>
-      </c>
-      <c r="C289" t="s">
-        <v>637</v>
-      </c>
-      <c r="D289" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>639</v>
-      </c>
-      <c r="B290" t="s">
-        <v>640</v>
-      </c>
-      <c r="C290" t="s">
-        <v>641</v>
-      </c>
-      <c r="D290" t="s">
-        <v>642</v>
-      </c>
-      <c r="E290" t="s">
-        <v>643</v>
-      </c>
-      <c r="F290" t="s">
-        <v>644</v>
-      </c>
-      <c r="G290" t="s">
-        <v>645</v>
-      </c>
-      <c r="H290" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>647</v>
-      </c>
-      <c r="B291" t="s">
-        <v>648</v>
-      </c>
-      <c r="C291" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>650</v>
-      </c>
-      <c r="B292" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/references/background_data/a1-a3.xlsx
+++ b/references/background_data/a1-a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861C35C-FD2E-4247-981F-5E6D03DECA61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EBAC8-13DA-46D9-AAC6-AB638A3DD37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="C292" sqref="C292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,6 +2860,9 @@
       <c r="J2">
         <v>0.04</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2" s="1">
         <v>5.5799999999999997E-11</v>
       </c>
@@ -2898,6 +2901,9 @@
       <c r="J3">
         <v>0.01</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3" s="1">
         <v>1.46E-12</v>
       </c>
@@ -2936,6 +2942,9 @@
       <c r="J4">
         <v>0.03</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>3.8500000000000002E-7</v>
       </c>
@@ -2974,6 +2983,9 @@
       <c r="J5">
         <v>0.04</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5" s="1">
         <v>7.5300000000000002E-13</v>
       </c>
@@ -3012,6 +3024,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6" s="1">
         <v>7.9500000000000005E-10</v>
       </c>
@@ -3050,6 +3065,9 @@
       <c r="J7">
         <v>-0.08</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7" s="1">
         <v>8.9000000000000003E-10</v>
       </c>
@@ -3088,6 +3106,9 @@
       <c r="J8">
         <v>-7.0000000000000007E-2</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8" s="1">
         <v>1.1800000000000001E-9</v>
       </c>
@@ -3126,6 +3147,9 @@
       <c r="J9">
         <v>-0.09</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9" s="1">
         <v>6.2300000000000002E-9</v>
       </c>
@@ -3164,6 +3188,9 @@
       <c r="J10">
         <v>-0.08</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10" s="1">
         <v>4.4600000000000002E-8</v>
       </c>
@@ -3202,6 +3229,9 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11" s="1">
         <v>7.9500000000000005E-10</v>
       </c>
@@ -3240,6 +3270,9 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
       <c r="L12" s="1">
         <v>7.9500000000000005E-10</v>
       </c>
@@ -3278,6 +3311,9 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13" s="1">
         <v>1.05E-10</v>
       </c>
@@ -3316,6 +3352,9 @@
       <c r="J14">
         <v>-0.03</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14" s="1">
         <v>4.9900000000000003E-10</v>
       </c>
@@ -3354,6 +3393,9 @@
       <c r="J15">
         <v>-0.03</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15" s="1">
         <v>4.9900000000000003E-10</v>
       </c>
@@ -3392,6 +3434,9 @@
       <c r="J16">
         <v>-0.57999999999999996</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>3.0600000000000001E-7</v>
       </c>
@@ -3430,6 +3475,9 @@
       <c r="J17">
         <v>-0.02</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
       <c r="L17" s="1">
         <v>7.7600000000000001E-10</v>
       </c>
@@ -3468,6 +3516,9 @@
       <c r="J18">
         <v>-2.1000000000000001E-2</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18" s="1">
         <v>6.3600000000000005E-11</v>
       </c>
@@ -3506,6 +3557,9 @@
       <c r="J19">
         <v>-1.6990000000000001</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19" s="1">
         <v>1.14E-12</v>
       </c>
@@ -3544,6 +3598,9 @@
       <c r="J20">
         <v>-1.4999999999999999E-2</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
       <c r="L20" s="1">
         <v>4.0699999999999999E-11</v>
       </c>
@@ -3582,6 +3639,9 @@
       <c r="J21">
         <v>-1.696</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21" s="1">
         <v>1.1099999999999999E-12</v>
       </c>
@@ -3620,6 +3680,9 @@
       <c r="J22">
         <v>-1.698</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22" s="1">
         <v>1.2499999999999999E-12</v>
       </c>
@@ -3658,6 +3721,9 @@
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23" s="1">
         <v>6.8000000000000001E-14</v>
       </c>
@@ -3696,6 +3762,9 @@
       <c r="J24">
         <v>-1.8380000000000001</v>
       </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24" s="1">
         <v>4.9200000000000002E-13</v>
       </c>
@@ -3734,6 +3803,9 @@
       <c r="J25">
         <v>-1.837</v>
       </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
       <c r="L25" s="1">
         <v>3.8700000000000003E-12</v>
       </c>
@@ -3772,6 +3844,9 @@
       <c r="J26">
         <v>-1.8109999999999999</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>6.1999999999999999E-8</v>
       </c>
@@ -3810,6 +3885,9 @@
       <c r="J27" s="1">
         <v>-3.0000000000000001E-5</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
       <c r="L27" s="1">
         <v>3.6300000000000002E-15</v>
       </c>
@@ -3848,6 +3926,9 @@
       <c r="J28">
         <v>-1.76</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28" s="1">
         <v>7.6700000000000002E-9</v>
       </c>
@@ -3886,6 +3967,9 @@
       <c r="J29">
         <v>0</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
       <c r="L29" s="1">
         <v>2.6999999999999999E-14</v>
       </c>
@@ -3924,6 +4008,9 @@
       <c r="J30">
         <v>0</v>
       </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
       <c r="L30" s="1">
         <v>2.6999999999999999E-14</v>
       </c>
@@ -3962,6 +4049,9 @@
       <c r="J31">
         <v>-0.01</v>
       </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
       <c r="L31" s="1">
         <v>1.97E-9</v>
       </c>
@@ -4000,6 +4090,9 @@
       <c r="J32">
         <v>0.11</v>
       </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
       <c r="L32" s="1">
         <v>8.9100000000000003E-10</v>
       </c>
@@ -4038,6 +4131,9 @@
       <c r="J33">
         <v>-0.06</v>
       </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
       <c r="L33" s="1">
         <v>6.1900000000000005E-8</v>
       </c>
@@ -4076,6 +4172,9 @@
       <c r="J34">
         <v>-1.83</v>
       </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
       <c r="L34" s="1">
         <v>4.9900000000000003E-12</v>
       </c>
@@ -4114,6 +4213,9 @@
       <c r="J35">
         <v>-1.794</v>
       </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
       <c r="L35" s="1">
         <v>1.56E-10</v>
       </c>
@@ -4152,6 +4254,9 @@
       <c r="J36">
         <v>-1.794</v>
       </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
       <c r="L36" s="1">
         <v>1.56E-10</v>
       </c>
@@ -4190,6 +4295,9 @@
       <c r="J37">
         <v>-0.04</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37" s="1">
         <v>7.8699999999999998E-13</v>
       </c>
@@ -4228,6 +4336,9 @@
       <c r="J38">
         <v>0.4</v>
       </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
       <c r="L38" s="1">
         <v>6.39E-12</v>
       </c>
@@ -4266,6 +4377,9 @@
       <c r="J39">
         <v>0.01</v>
       </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39" s="1">
         <v>1.34E-10</v>
       </c>
@@ -4304,6 +4418,9 @@
       <c r="J40">
         <v>0</v>
       </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="L40" s="1">
         <v>4.7100000000000003E-14</v>
       </c>
@@ -4342,6 +4459,9 @@
       <c r="J41">
         <v>0</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -4380,6 +4500,9 @@
       <c r="J42">
         <v>-7.0000000000000007E-2</v>
       </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
       <c r="L42" s="1">
         <v>1.1800000000000001E-9</v>
       </c>
@@ -4418,6 +4541,9 @@
       <c r="J43">
         <v>0</v>
       </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="L43" s="1">
         <v>2.41E-12</v>
       </c>
@@ -4456,6 +4582,9 @@
       <c r="J44">
         <v>0.01</v>
       </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44" s="1">
         <v>1.36E-10</v>
       </c>
@@ -4494,6 +4623,9 @@
       <c r="J45">
         <v>-0.01</v>
       </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
       <c r="L45" s="1">
         <v>-1.6499999999999999E-8</v>
       </c>
@@ -4532,6 +4664,9 @@
       <c r="J46">
         <v>-0.38</v>
       </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
       <c r="L46">
         <v>3.53E-7</v>
       </c>
@@ -4570,6 +4705,9 @@
       <c r="J47">
         <v>-0.193</v>
       </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
       <c r="L47" s="1">
         <v>4.6600000000000003E-13</v>
       </c>
@@ -4608,6 +4746,9 @@
       <c r="J48">
         <v>-0.34</v>
       </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
       <c r="L48">
         <v>1.54E-7</v>
       </c>
@@ -4646,6 +4787,9 @@
       <c r="J49">
         <v>-0.02</v>
       </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
       <c r="L49" s="1">
         <v>1.9399999999999998E-8</v>
       </c>
@@ -4684,6 +4828,9 @@
       <c r="J50">
         <v>-0.01</v>
       </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
       <c r="L50" s="1">
         <v>1.66E-8</v>
       </c>
@@ -4722,6 +4869,9 @@
       <c r="J51">
         <v>0.04</v>
       </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
       <c r="L51" s="1">
         <v>2.2400000000000001E-11</v>
       </c>
@@ -4760,6 +4910,9 @@
       <c r="J52">
         <v>-2E-3</v>
       </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
       <c r="L52" s="1">
         <v>1.6300000000000001E-13</v>
       </c>
@@ -4798,6 +4951,9 @@
       <c r="J53">
         <v>0.01</v>
       </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
       <c r="L53" s="1">
         <v>3.67E-13</v>
       </c>
@@ -4836,6 +4992,9 @@
       <c r="J54">
         <v>-2</v>
       </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
       <c r="L54">
         <v>9.3899999999999999E-6</v>
       </c>
@@ -4874,6 +5033,9 @@
       <c r="J55">
         <v>0</v>
       </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
       <c r="L55" s="1">
         <v>3.3399999999999998E-15</v>
       </c>
@@ -4912,6 +5074,9 @@
       <c r="J56">
         <v>-0.05</v>
       </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
       <c r="L56" s="1">
         <v>5.8199999999999998E-8</v>
       </c>
@@ -4950,6 +5115,9 @@
       <c r="J57">
         <v>-3.0000000000000001E-3</v>
       </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
       <c r="L57" s="1">
         <v>8.4100000000000003E-14</v>
       </c>
@@ -4988,6 +5156,9 @@
       <c r="J58">
         <v>-1.4999999999999999E-2</v>
       </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
       <c r="L58" s="1">
         <v>5.2499999999999999E-9</v>
       </c>
@@ -5026,6 +5197,9 @@
       <c r="J59">
         <v>-0.33</v>
       </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
       <c r="L59">
         <v>2.4299999999999999E-7</v>
       </c>
@@ -5064,6 +5238,9 @@
       <c r="J60">
         <v>0.01</v>
       </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
       <c r="L60" s="1">
         <v>1.1499999999999999E-12</v>
       </c>
@@ -5102,6 +5279,9 @@
       <c r="J61">
         <v>1E-3</v>
       </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
       <c r="L61" s="1">
         <v>6.8099999999999995E-14</v>
       </c>
@@ -5140,6 +5320,9 @@
       <c r="J62">
         <v>0</v>
       </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
       <c r="L62" s="1">
         <v>5.6400000000000002E-13</v>
       </c>
@@ -5178,6 +5361,9 @@
       <c r="J63">
         <v>0</v>
       </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
       <c r="L63" s="1">
         <v>1.1E-12</v>
       </c>
@@ -5216,6 +5402,9 @@
       <c r="J64">
         <v>0</v>
       </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
       <c r="L64" s="1">
         <v>4.7100000000000001E-13</v>
       </c>
@@ -5254,6 +5443,9 @@
       <c r="J65">
         <v>0</v>
       </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
       <c r="L65" s="1">
         <v>7.59E-13</v>
       </c>
@@ -5292,6 +5484,9 @@
       <c r="J66">
         <v>0.01</v>
       </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
       <c r="L66" s="1">
         <v>5.4000000000000002E-13</v>
       </c>
@@ -5330,6 +5525,9 @@
       <c r="J67">
         <v>-1.8109999999999999</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>6.1999999999999999E-8</v>
       </c>
@@ -5368,6 +5566,9 @@
       <c r="J68">
         <v>-1.6970000000000001</v>
       </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68" s="1">
         <v>1.1E-12</v>
       </c>
@@ -5406,6 +5607,9 @@
       <c r="J69">
         <v>-2.42</v>
       </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
       <c r="L69" s="1">
         <v>4.4300000000000003E-12</v>
       </c>
@@ -5444,6 +5648,9 @@
       <c r="J70">
         <v>-1.5589999999999999</v>
       </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
       <c r="L70" s="1">
         <v>1.1700000000000001E-13</v>
       </c>
@@ -5482,6 +5689,9 @@
       <c r="J71">
         <v>-1.694</v>
       </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
       <c r="L71" s="1">
         <v>7.8699999999999998E-13</v>
       </c>
@@ -5520,6 +5730,9 @@
       <c r="J72">
         <v>0.12</v>
       </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72" s="1">
         <v>2.0500000000000002E-9</v>
       </c>
@@ -5558,6 +5771,9 @@
       <c r="J73">
         <v>-0.01</v>
       </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
       <c r="L73" s="1">
         <v>2.8699999999999999E-8</v>
       </c>
@@ -5596,6 +5812,9 @@
       <c r="J74">
         <v>-0.02</v>
       </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
       <c r="L74" s="1">
         <v>4.9600000000000001E-8</v>
       </c>
@@ -5634,6 +5853,9 @@
       <c r="J75">
         <v>0.16</v>
       </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
       <c r="L75" s="1">
         <v>2.7800000000000001E-8</v>
       </c>
@@ -5672,6 +5894,9 @@
       <c r="J76">
         <v>-0.01</v>
       </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
       <c r="L76" s="1">
         <v>2.96E-8</v>
       </c>
@@ -5710,6 +5935,9 @@
       <c r="J77">
         <v>-0.02</v>
       </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
       <c r="L77" s="1">
         <v>2.2300000000000001E-8</v>
       </c>
@@ -5748,6 +5976,9 @@
       <c r="J78">
         <v>0.01</v>
       </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
       <c r="L78" s="1">
         <v>2.8999999999999998E-13</v>
       </c>
@@ -5786,6 +6017,9 @@
       <c r="J79">
         <v>-0.10888790700000001</v>
       </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
       <c r="L79" s="1">
         <v>-7.0500000000000003E-9</v>
       </c>
@@ -5824,6 +6058,9 @@
       <c r="J80">
         <v>-1.5920000000000001</v>
       </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
       <c r="L80" s="1">
         <v>4.27E-13</v>
       </c>
@@ -5862,6 +6099,9 @@
       <c r="J81">
         <v>-1.5920000000000001</v>
       </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
       <c r="L81" s="1">
         <v>4.27E-13</v>
       </c>
@@ -5900,6 +6140,9 @@
       <c r="J82">
         <v>-1.732</v>
       </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
       <c r="L82" s="1">
         <v>6.9599999999999997E-10</v>
       </c>
@@ -5938,6 +6181,9 @@
       <c r="J83">
         <v>-1.79</v>
       </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
       <c r="L83" s="1">
         <v>1.6000000000000001E-9</v>
       </c>
@@ -5976,6 +6222,9 @@
       <c r="J84">
         <v>-3.286378E-3</v>
       </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
       <c r="L84" s="1">
         <v>4.9499999999999997E-14</v>
       </c>
@@ -6014,6 +6263,9 @@
       <c r="J85">
         <v>-2.6419989999999999E-3</v>
       </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
       <c r="L85" s="1">
         <v>4.2899999999999999E-14</v>
       </c>
@@ -6052,6 +6304,9 @@
       <c r="J86">
         <v>-1.6278219999999999E-3</v>
       </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
       <c r="L86" s="1">
         <v>3.32E-14</v>
       </c>
@@ -6090,6 +6345,9 @@
       <c r="J87">
         <v>-2.3152849999999998E-3</v>
       </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
       <c r="L87" s="1">
         <v>3.9600000000000003E-14</v>
       </c>
@@ -6128,6 +6386,9 @@
       <c r="J88">
         <v>-2.239595E-3</v>
       </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
       <c r="L88" s="1">
         <v>3.93E-14</v>
       </c>
@@ -6166,6 +6427,9 @@
       <c r="J89">
         <v>-2.0059829999999998E-3</v>
       </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
       <c r="L89" s="1">
         <v>3.6600000000000003E-14</v>
       </c>
@@ -6204,6 +6468,9 @@
       <c r="J90">
         <v>-1.920911E-3</v>
       </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
       <c r="L90" s="1">
         <v>3.6300000000000001E-14</v>
       </c>
@@ -6242,6 +6509,9 @@
       <c r="J91">
         <v>-1.595595E-3</v>
       </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
       <c r="L91" s="1">
         <v>3.32E-14</v>
       </c>
@@ -6280,6 +6550,9 @@
       <c r="J92">
         <v>-2.4194009999999998E-3</v>
       </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
       <c r="L92" s="1">
         <v>4.2099999999999999E-14</v>
       </c>
@@ -6318,6 +6591,9 @@
       <c r="J93">
         <v>-2.3563519999999999E-3</v>
       </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
       <c r="L93" s="1">
         <v>4.23E-14</v>
       </c>
@@ -6356,6 +6632,9 @@
       <c r="J94">
         <v>-2.4328359999999999E-3</v>
       </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
       <c r="L94" s="1">
         <v>4.2099999999999999E-14</v>
       </c>
@@ -6394,6 +6673,9 @@
       <c r="J95">
         <v>-2.399988E-3</v>
       </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
       <c r="L95" s="1">
         <v>4.2099999999999999E-14</v>
       </c>
@@ -6432,6 +6714,9 @@
       <c r="J96">
         <v>-2.509107E-3</v>
       </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
       <c r="L96" s="1">
         <v>4.38E-14</v>
       </c>
@@ -6470,6 +6755,9 @@
       <c r="J97">
         <v>-2.5851300000000002E-3</v>
       </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
       <c r="L97" s="1">
         <v>4.2600000000000003E-14</v>
       </c>
@@ -6508,6 +6796,9 @@
       <c r="J98">
         <v>-2.501409E-3</v>
       </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
       <c r="L98" s="1">
         <v>4.2699999999999997E-14</v>
       </c>
@@ -6546,6 +6837,9 @@
       <c r="J99">
         <v>-2.254593E-3</v>
       </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
       <c r="L99" s="1">
         <v>4.0399999999999997E-14</v>
       </c>
@@ -6584,6 +6878,9 @@
       <c r="J100">
         <v>-2.4028090000000001E-3</v>
       </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
       <c r="L100" s="1">
         <v>4.0900000000000001E-14</v>
       </c>
@@ -6622,6 +6919,9 @@
       <c r="J101">
         <v>-4.1703460000000001E-3</v>
       </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
       <c r="L101" s="1">
         <v>5.7699999999999996E-14</v>
       </c>
@@ -6660,6 +6960,9 @@
       <c r="J102">
         <v>-3.3851609999999998E-3</v>
       </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
       <c r="L102" s="1">
         <v>5.0000000000000002E-14</v>
       </c>
@@ -6698,6 +7001,9 @@
       <c r="J103">
         <v>-2.0872009999999999E-3</v>
       </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
       <c r="L103" s="1">
         <v>3.7499999999999998E-14</v>
       </c>
@@ -6736,6 +7042,9 @@
       <c r="J104">
         <v>-2.96262E-3</v>
       </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
       <c r="L104" s="1">
         <v>4.5699999999999997E-14</v>
       </c>
@@ -6774,6 +7083,9 @@
       <c r="J105">
         <v>-2.890994E-3</v>
       </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
       <c r="L105" s="1">
         <v>4.5500000000000002E-14</v>
       </c>
@@ -6812,6 +7124,9 @@
       <c r="J106">
         <v>-2.564715E-3</v>
       </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
       <c r="L106" s="1">
         <v>4.1800000000000002E-14</v>
       </c>
@@ -6850,6 +7165,9 @@
       <c r="J107">
         <v>-2.4769839999999998E-3</v>
       </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
       <c r="L107" s="1">
         <v>4.15E-14</v>
       </c>
@@ -6888,6 +7206,9 @@
       <c r="J108">
         <v>-2.0367319999999999E-3</v>
       </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
       <c r="L108" s="1">
         <v>3.7300000000000003E-14</v>
       </c>
@@ -6926,6 +7247,9 @@
       <c r="J109">
         <v>-2.9768889999999999E-3</v>
       </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
       <c r="L109" s="1">
         <v>4.7399999999999999E-14</v>
       </c>
@@ -6964,6 +7288,9 @@
       <c r="J110">
         <v>-2.894074E-3</v>
       </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
       <c r="L110" s="1">
         <v>4.75E-14</v>
       </c>
@@ -7002,6 +7329,9 @@
       <c r="J111">
         <v>-2.942301E-3</v>
       </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
       <c r="L111" s="1">
         <v>4.68E-14</v>
       </c>
@@ -7040,6 +7370,9 @@
       <c r="J112">
         <v>-2.9134830000000001E-3</v>
       </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
       <c r="L112" s="1">
         <v>4.7000000000000002E-14</v>
       </c>
@@ -7078,6 +7411,9 @@
       <c r="J113">
         <v>-3.098712E-3</v>
       </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
       <c r="L113" s="1">
         <v>4.9400000000000003E-14</v>
       </c>
@@ -7116,6 +7452,9 @@
       <c r="J114">
         <v>-3.0813680000000001E-3</v>
       </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
       <c r="L114" s="1">
         <v>4.7199999999999997E-14</v>
       </c>
@@ -7154,6 +7493,9 @@
       <c r="J115">
         <v>-3.0246090000000002E-3</v>
       </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
       <c r="L115" s="1">
         <v>4.76E-14</v>
       </c>
@@ -7192,6 +7534,9 @@
       <c r="J116">
         <v>-2.707924E-3</v>
       </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
       <c r="L116" s="1">
         <v>4.4700000000000001E-14</v>
       </c>
@@ -7230,6 +7575,9 @@
       <c r="J117">
         <v>-2.8609249999999998E-3</v>
       </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
       <c r="L117" s="1">
         <v>4.5199999999999999E-14</v>
       </c>
@@ -7268,6 +7616,9 @@
       <c r="J118">
         <v>-4.8838509999999998E-3</v>
       </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
       <c r="L118" s="1">
         <v>6.4799999999999999E-14</v>
       </c>
@@ -7306,6 +7657,9 @@
       <c r="J119">
         <v>-3.9166840000000001E-3</v>
       </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
       <c r="L119" s="1">
         <v>5.5200000000000001E-14</v>
       </c>
@@ -7344,6 +7698,9 @@
       <c r="J120">
         <v>-2.39975E-3</v>
       </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
       <c r="L120" s="1">
         <v>4.0599999999999999E-14</v>
       </c>
@@ -7382,6 +7739,9 @@
       <c r="J121">
         <v>-3.401575E-3</v>
       </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
       <c r="L121" s="1">
         <v>5.0000000000000002E-14</v>
       </c>
@@ -7420,6 +7780,9 @@
       <c r="J122">
         <v>-3.3361089999999999E-3</v>
       </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
       <c r="L122" s="1">
         <v>4.98E-14</v>
       </c>
@@ -7458,6 +7821,9 @@
       <c r="J123">
         <v>-2.9357469999999998E-3</v>
       </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
       <c r="L123" s="1">
         <v>4.5400000000000001E-14</v>
       </c>
@@ -7496,6 +7862,9 @@
       <c r="J124">
         <v>-2.857736E-3</v>
       </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
       <c r="L124" s="1">
         <v>4.53E-14</v>
       </c>
@@ -7534,6 +7903,9 @@
       <c r="J125">
         <v>-2.3439289999999998E-3</v>
       </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
       <c r="L125" s="1">
         <v>4.0300000000000002E-14</v>
       </c>
@@ -7572,6 +7944,9 @@
       <c r="J126">
         <v>-3.545973E-3</v>
       </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
       <c r="L126" s="1">
         <v>5.2699999999999999E-14</v>
       </c>
@@ -7610,6 +7985,9 @@
       <c r="J127">
         <v>-3.4431650000000002E-3</v>
       </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
       <c r="L127" s="1">
         <v>5.2599999999999998E-14</v>
       </c>
@@ -7648,6 +8026,9 @@
       <c r="J128">
         <v>-3.4522390000000002E-3</v>
       </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
       <c r="L128" s="1">
         <v>5.1600000000000002E-14</v>
       </c>
@@ -7686,6 +8067,9 @@
       <c r="J129">
         <v>-3.435844E-3</v>
       </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
       <c r="L129" s="1">
         <v>5.21E-14</v>
       </c>
@@ -7724,6 +8108,9 @@
       <c r="J130">
         <v>-3.7062810000000001E-3</v>
       </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
       <c r="L130" s="1">
         <v>5.4999999999999999E-14</v>
       </c>
@@ -7762,6 +8149,9 @@
       <c r="J131">
         <v>-3.5629780000000001E-3</v>
       </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
       <c r="L131" s="1">
         <v>5.1799999999999998E-14</v>
       </c>
@@ -7800,6 +8190,9 @@
       <c r="J132">
         <v>-3.544228E-3</v>
       </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
       <c r="L132" s="1">
         <v>5.2400000000000003E-14</v>
       </c>
@@ -7838,6 +8231,9 @@
       <c r="J133">
         <v>-3.174138E-3</v>
       </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
       <c r="L133" s="1">
         <v>4.9200000000000001E-14</v>
       </c>
@@ -7876,6 +8272,9 @@
       <c r="J134">
         <v>-3.3053790000000002E-3</v>
       </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
       <c r="L134" s="1">
         <v>4.9200000000000001E-14</v>
       </c>
@@ -7914,6 +8313,9 @@
       <c r="J135">
         <v>0</v>
       </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
       <c r="L135">
         <v>0</v>
       </c>
@@ -7952,6 +8354,9 @@
       <c r="J136">
         <v>2E-3</v>
       </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
       <c r="L136" s="1">
         <v>7.0099999999999999E-14</v>
       </c>
@@ -7990,6 +8395,9 @@
       <c r="J137">
         <v>-1.645</v>
       </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
       <c r="L137" s="1">
         <v>3.9799999999999999E-9</v>
       </c>
@@ -8028,6 +8436,9 @@
       <c r="J138">
         <v>-7.0000000000000007E-2</v>
       </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
       <c r="L138" s="1">
         <v>4.7099999999999998E-8</v>
       </c>
@@ -8066,6 +8477,9 @@
       <c r="J139">
         <v>-0.08</v>
       </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
       <c r="L139" s="1">
         <v>3.8799999999999997E-8</v>
       </c>
@@ -8104,6 +8518,9 @@
       <c r="J140">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
       <c r="L140" s="1">
         <v>2.0999999999999999E-14</v>
       </c>
@@ -8142,6 +8559,9 @@
       <c r="J141">
         <v>-4.0000000000000001E-3</v>
       </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
       <c r="L141" s="1">
         <v>4.15E-14</v>
       </c>
@@ -8180,6 +8600,9 @@
       <c r="J142">
         <v>0</v>
       </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
       <c r="L142">
         <v>0</v>
       </c>
@@ -8218,6 +8641,9 @@
       <c r="J143">
         <v>-1.732</v>
       </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
       <c r="L143" s="1">
         <v>6.9599999999999997E-10</v>
       </c>
@@ -8256,6 +8682,9 @@
       <c r="J144">
         <v>0.05</v>
       </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
       <c r="L144" s="1">
         <v>1.0700000000000001E-12</v>
       </c>
@@ -8294,6 +8723,9 @@
       <c r="J145">
         <v>0.02</v>
       </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
       <c r="L145" s="1">
         <v>7.1999999999999996E-13</v>
       </c>
@@ -8332,6 +8764,9 @@
       <c r="J146">
         <v>-1.79</v>
       </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
       <c r="L146" s="1">
         <v>1.6000000000000001E-9</v>
       </c>
@@ -8370,6 +8805,9 @@
       <c r="J147">
         <v>0</v>
       </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
       <c r="L147" s="1">
         <v>3.8000000000000002E-14</v>
       </c>
@@ -8408,6 +8846,9 @@
       <c r="J148">
         <v>-0.11</v>
       </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
       <c r="L148">
         <v>1.4000000000000001E-7</v>
       </c>
@@ -8446,6 +8887,9 @@
       <c r="J149">
         <v>-1.794</v>
       </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
       <c r="L149" s="1">
         <v>1.56E-10</v>
       </c>
@@ -8484,6 +8928,9 @@
       <c r="J150">
         <v>-1.794</v>
       </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
       <c r="L150" s="1">
         <v>1.56E-10</v>
       </c>
@@ -8522,6 +8969,9 @@
       <c r="J151">
         <v>0.01</v>
       </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
       <c r="L151" s="1">
         <v>2.98E-10</v>
       </c>
@@ -8560,6 +9010,9 @@
       <c r="J152">
         <v>0.01</v>
       </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
       <c r="L152" s="1">
         <v>7.0100000000000002E-12</v>
       </c>
@@ -8598,6 +9051,9 @@
       <c r="J153">
         <v>-0.02</v>
       </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
       <c r="L153" s="1">
         <v>1.9E-13</v>
       </c>
@@ -8636,6 +9092,9 @@
       <c r="J154">
         <v>0</v>
       </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
       <c r="L154" s="1">
         <v>4.3700000000000002E-12</v>
       </c>
@@ -8674,6 +9133,9 @@
       <c r="J155">
         <v>0.01</v>
       </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
       <c r="L155" s="1">
         <v>1.95E-10</v>
       </c>
@@ -8712,6 +9174,9 @@
       <c r="J156">
         <v>-1.6950000000000001</v>
       </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
       <c r="L156" s="1">
         <v>2.0600000000000001E-12</v>
       </c>
@@ -8750,6 +9215,9 @@
       <c r="J157">
         <v>1E-3</v>
       </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
       <c r="L157" s="1">
         <v>6.34E-14</v>
       </c>
@@ -8788,6 +9256,9 @@
       <c r="J158">
         <v>0</v>
       </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
       <c r="L158" s="1">
         <v>7.2899999999999997E-15</v>
       </c>
@@ -8826,6 +9297,9 @@
       <c r="J159">
         <v>-0.05</v>
       </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
       <c r="L159" s="1">
         <v>1.5400000000000001E-10</v>
       </c>
@@ -8864,6 +9338,9 @@
       <c r="J160">
         <v>-0.03</v>
       </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
       <c r="L160" s="1">
         <v>4.8300000000000002E-12</v>
       </c>
@@ -8902,6 +9379,9 @@
       <c r="J161">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
       <c r="L161" s="1">
         <v>1.42E-11</v>
       </c>
@@ -8940,6 +9420,9 @@
       <c r="J162">
         <v>0.01</v>
       </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
       <c r="L162" s="1">
         <v>3.0200000000000003E-11</v>
       </c>
@@ -8978,6 +9461,9 @@
       <c r="J163">
         <v>0.01</v>
       </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
       <c r="L163" s="1">
         <v>1.6300000000000001E-11</v>
       </c>
@@ -9016,6 +9502,9 @@
       <c r="J164">
         <v>-0.04</v>
       </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
       <c r="L164" s="1">
         <v>3.1200000000000001E-8</v>
       </c>
@@ -9054,6 +9543,9 @@
       <c r="J165">
         <v>-0.06</v>
       </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
       <c r="L165">
         <v>5.1E-8</v>
       </c>
@@ -9092,6 +9584,9 @@
       <c r="J166">
         <v>0</v>
       </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
       <c r="L166">
         <v>6.1000000000000004E-8</v>
       </c>
@@ -9130,6 +9625,9 @@
       <c r="J167">
         <v>0</v>
       </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
       <c r="L167" s="1">
         <v>6.13E-8</v>
       </c>
@@ -9168,6 +9666,9 @@
       <c r="J168">
         <v>0</v>
       </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
       <c r="L168" s="1">
         <v>6.3399999999999999E-8</v>
       </c>
@@ -9206,6 +9707,9 @@
       <c r="J169">
         <v>0.01</v>
       </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
       <c r="L169" s="1">
         <v>6.3399999999999999E-8</v>
       </c>
@@ -9244,6 +9748,9 @@
       <c r="J170">
         <v>-0.1</v>
       </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
       <c r="L170" s="1">
         <v>6.7099999999999999E-8</v>
       </c>
@@ -9282,6 +9789,9 @@
       <c r="J171">
         <v>0</v>
       </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
       <c r="L171" s="1">
         <v>6.9300000000000005E-8</v>
       </c>
@@ -9320,6 +9830,9 @@
       <c r="J172">
         <v>-0.05</v>
       </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
       <c r="L172" s="1">
         <v>5.8199999999999998E-8</v>
       </c>
@@ -9358,6 +9871,9 @@
       <c r="J173">
         <v>-0.02</v>
       </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
       <c r="L173" s="1">
         <v>3.1100000000000001E-8</v>
       </c>
@@ -9396,6 +9912,9 @@
       <c r="J174">
         <v>-0.23</v>
       </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
       <c r="L174">
         <v>2.2999999999999999E-7</v>
       </c>
@@ -9434,6 +9953,9 @@
       <c r="J175">
         <v>-0.05</v>
       </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
       <c r="L175" s="1">
         <v>5.8199999999999998E-8</v>
       </c>
@@ -9472,6 +9994,9 @@
       <c r="J176">
         <v>-1E-3</v>
       </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
       <c r="L176" s="1">
         <v>1.7700000000000001E-10</v>
       </c>
@@ -9510,6 +10035,9 @@
       <c r="J177">
         <v>-0.01</v>
       </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
       <c r="L177" s="1">
         <v>4.9099999999999998E-9</v>
       </c>
@@ -9548,6 +10076,9 @@
       <c r="J178">
         <v>-0.01</v>
       </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
       <c r="L178" s="1">
         <v>-8.6100000000000007E-9</v>
       </c>
@@ -9586,6 +10117,9 @@
       <c r="J179">
         <v>-0.01</v>
       </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
       <c r="L179" s="1">
         <v>2.9700000000000001E-8</v>
       </c>
@@ -9624,6 +10158,9 @@
       <c r="J180">
         <v>-0.02</v>
       </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
       <c r="L180" s="1">
         <v>2.29E-8</v>
       </c>
@@ -9662,6 +10199,9 @@
       <c r="J181">
         <v>-0.01</v>
       </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
       <c r="L181" s="1">
         <v>-1.22E-8</v>
       </c>
@@ -9700,6 +10240,9 @@
       <c r="J182">
         <v>0</v>
       </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
       <c r="L182" s="1">
         <v>5.7599999999999997E-13</v>
       </c>
@@ -9738,6 +10281,9 @@
       <c r="J183">
         <v>0</v>
       </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
       <c r="L183" s="1">
         <v>2.1100000000000001E-13</v>
       </c>
@@ -9776,6 +10322,9 @@
       <c r="J184">
         <v>-2.5121309999999999E-3</v>
       </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
       <c r="L184" s="1">
         <v>2.9099999999999997E-14</v>
       </c>
@@ -9814,6 +10363,9 @@
       <c r="J185">
         <v>-2.1340410000000001E-3</v>
       </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
       <c r="L185" s="1">
         <v>2.5599999999999999E-14</v>
       </c>
@@ -9852,6 +10404,9 @@
       <c r="J186">
         <v>-1.3066239999999999E-3</v>
       </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
       <c r="L186" s="1">
         <v>1.7999999999999999E-14</v>
       </c>
@@ -9890,6 +10445,9 @@
       <c r="J187">
         <v>-1.929523E-3</v>
       </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
       <c r="L187" s="1">
         <v>2.3599999999999999E-14</v>
       </c>
@@ -9928,6 +10486,9 @@
       <c r="J188">
         <v>-1.744872E-3</v>
       </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
       <c r="L188" s="1">
         <v>2.1799999999999999E-14</v>
       </c>
@@ -9966,6 +10527,9 @@
       <c r="J189">
         <v>-1.700165E-3</v>
       </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
       <c r="L189" s="1">
         <v>2.1600000000000001E-14</v>
       </c>
@@ -10004,6 +10568,9 @@
       <c r="J190">
         <v>-1.485903E-3</v>
       </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
       <c r="L190" s="1">
         <v>1.96E-14</v>
       </c>
@@ -10042,6 +10609,9 @@
       <c r="J191">
         <v>-1.221654E-3</v>
       </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
       <c r="L191" s="1">
         <v>1.7199999999999999E-14</v>
       </c>
@@ -10080,6 +10650,9 @@
       <c r="J192">
         <v>-1.9539879999999998E-3</v>
       </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
       <c r="L192" s="1">
         <v>2.38E-14</v>
       </c>
@@ -10118,6 +10691,9 @@
       <c r="J193">
         <v>-1.9022010000000001E-3</v>
       </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
       <c r="L193" s="1">
         <v>2.34E-14</v>
       </c>
@@ -10156,6 +10732,9 @@
       <c r="J194">
         <v>-1.9681389999999998E-3</v>
       </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
       <c r="L194" s="1">
         <v>2.41E-14</v>
       </c>
@@ -10194,6 +10773,9 @@
       <c r="J195">
         <v>-1.9672119999999999E-3</v>
       </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
       <c r="L195" s="1">
         <v>2.42E-14</v>
       </c>
@@ -10232,6 +10814,9 @@
       <c r="J196">
         <v>-1.9774049999999998E-3</v>
       </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
       <c r="L196" s="1">
         <v>2.3999999999999999E-14</v>
       </c>
@@ -10270,6 +10855,9 @@
       <c r="J197">
         <v>-2.1327640000000001E-3</v>
       </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
       <c r="L197" s="1">
         <v>2.5899999999999999E-14</v>
       </c>
@@ -10308,6 +10896,9 @@
       <c r="J198">
         <v>-2.0280680000000001E-3</v>
       </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
       <c r="L198" s="1">
         <v>2.4300000000000001E-14</v>
       </c>
@@ -10346,6 +10937,9 @@
       <c r="J199">
         <v>-1.839575E-3</v>
       </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
       <c r="L199" s="1">
         <v>2.2899999999999999E-14</v>
       </c>
@@ -10384,6 +10978,9 @@
       <c r="J200">
         <v>-1.949302E-3</v>
       </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
       <c r="L200" s="1">
         <v>2.3900000000000001E-14</v>
       </c>
@@ -10422,6 +11019,9 @@
       <c r="J201">
         <v>-3.178943E-3</v>
       </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
       <c r="L201" s="1">
         <v>3.5099999999999997E-14</v>
       </c>
@@ -10460,6 +11060,9 @@
       <c r="J202">
         <v>-2.7129810000000002E-3</v>
       </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
       <c r="L202" s="1">
         <v>3.0799999999999999E-14</v>
       </c>
@@ -10498,6 +11101,9 @@
       <c r="J203">
         <v>-1.674914E-3</v>
       </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
       <c r="L203" s="1">
         <v>2.1200000000000001E-14</v>
       </c>
@@ -10536,6 +11142,9 @@
       <c r="J204">
         <v>-2.459588E-3</v>
       </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
       <c r="L204" s="1">
         <v>2.8400000000000001E-14</v>
       </c>
@@ -10574,6 +11183,9 @@
       <c r="J205">
         <v>-2.2160019999999999E-3</v>
       </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
       <c r="L205" s="1">
         <v>2.6E-14</v>
       </c>
@@ -10612,6 +11224,9 @@
       <c r="J206">
         <v>-2.1742770000000001E-3</v>
       </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
       <c r="L206" s="1">
         <v>2.5899999999999999E-14</v>
       </c>
@@ -10650,6 +11265,9 @@
       <c r="J207">
         <v>-1.8861430000000001E-3</v>
       </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
       <c r="L207" s="1">
         <v>2.3100000000000001E-14</v>
       </c>
@@ -10688,6 +11306,9 @@
       <c r="J208">
         <v>-1.563364E-3</v>
       </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
       <c r="L208" s="1">
         <v>2.0100000000000001E-14</v>
       </c>
@@ -10726,6 +11347,9 @@
       <c r="J209">
         <v>-2.397906E-3</v>
       </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
       <c r="L209" s="1">
         <v>2.7799999999999999E-14</v>
       </c>
@@ -10764,6 +11388,9 @@
       <c r="J210">
         <v>-2.337464E-3</v>
       </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
       <c r="L210" s="1">
         <v>2.7399999999999999E-14</v>
       </c>
@@ -10802,6 +11429,9 @@
       <c r="J211">
         <v>-2.3803399999999999E-3</v>
       </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
       <c r="L211" s="1">
         <v>2.7799999999999999E-14</v>
       </c>
@@ -10840,6 +11470,9 @@
       <c r="J212">
         <v>-2.3908520000000002E-3</v>
       </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
       <c r="L212" s="1">
         <v>2.8100000000000001E-14</v>
       </c>
@@ -10878,6 +11511,9 @@
       <c r="J213">
         <v>-2.4278450000000001E-3</v>
       </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
       <c r="L213" s="1">
         <v>2.8100000000000001E-14</v>
       </c>
@@ -10916,6 +11552,9 @@
       <c r="J214">
         <v>-2.5434910000000002E-3</v>
       </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
       <c r="L214" s="1">
         <v>2.9600000000000001E-14</v>
       </c>
@@ -10954,6 +11593,9 @@
       <c r="J215">
         <v>-2.4552020000000001E-3</v>
       </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
       <c r="L215" s="1">
         <v>2.8100000000000001E-14</v>
       </c>
@@ -10992,6 +11634,9 @@
       <c r="J216">
         <v>-2.2304099999999999E-3</v>
       </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
       <c r="L216" s="1">
         <v>2.64E-14</v>
       </c>
@@ -11030,6 +11675,9 @@
       <c r="J217">
         <v>-2.3271400000000001E-3</v>
       </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
       <c r="L217" s="1">
         <v>2.7300000000000001E-14</v>
       </c>
@@ -11068,6 +11716,9 @@
       <c r="J218">
         <v>-3.9411979999999999E-3</v>
       </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
       <c r="L218" s="1">
         <v>4.2199999999999999E-14</v>
       </c>
@@ -11106,6 +11757,9 @@
       <c r="J219">
         <v>-3.3828230000000001E-3</v>
       </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
       <c r="L219" s="1">
         <v>3.7E-14</v>
       </c>
@@ -11144,6 +11798,9 @@
       <c r="J220">
         <v>-2.097036E-3</v>
       </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
       <c r="L220" s="1">
         <v>2.49E-14</v>
       </c>
@@ -11182,6 +11839,9 @@
       <c r="J221">
         <v>-3.0677299999999998E-3</v>
       </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
       <c r="L221" s="1">
         <v>3.4100000000000001E-14</v>
       </c>
@@ -11220,6 +11880,9 @@
       <c r="J222">
         <v>-2.745993E-3</v>
       </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
       <c r="L222" s="1">
         <v>3.1E-14</v>
       </c>
@@ -11258,6 +11921,9 @@
       <c r="J223">
         <v>-2.729184E-3</v>
       </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
       <c r="L223" s="1">
         <v>3.1E-14</v>
       </c>
@@ -11296,6 +11962,9 @@
       <c r="J224">
         <v>-2.3491850000000002E-3</v>
       </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
       <c r="L224" s="1">
         <v>2.7300000000000001E-14</v>
       </c>
@@ -11334,6 +12003,9 @@
       <c r="J225">
         <v>-1.950348E-3</v>
       </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
       <c r="L225" s="1">
         <v>2.3500000000000001E-14</v>
       </c>
@@ -11372,6 +12044,9 @@
       <c r="J226">
         <v>-2.9611419999999999E-3</v>
       </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
       <c r="L226" s="1">
         <v>3.2999999999999998E-14</v>
       </c>
@@ -11410,6 +12085,9 @@
       <c r="J227">
         <v>-2.8745149999999998E-3</v>
       </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
       <c r="L227" s="1">
         <v>3.24E-14</v>
       </c>
@@ -11448,6 +12126,9 @@
       <c r="J228">
         <v>-2.9080270000000001E-3</v>
       </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
       <c r="L228" s="1">
         <v>3.2700000000000002E-14</v>
       </c>
@@ -11486,6 +12167,9 @@
       <c r="J229">
         <v>-2.9273300000000001E-3</v>
       </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
       <c r="L229" s="1">
         <v>3.3099999999999999E-14</v>
       </c>
@@ -11524,6 +12208,9 @@
       <c r="J230">
         <v>-3.0271299999999998E-3</v>
       </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
       <c r="L230" s="1">
         <v>3.3699999999999998E-14</v>
       </c>
@@ -11562,6 +12249,9 @@
       <c r="J231">
         <v>-3.0474949999999999E-3</v>
       </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
       <c r="L231" s="1">
         <v>3.4200000000000002E-14</v>
       </c>
@@ -11600,6 +12290,9 @@
       <c r="J232">
         <v>-2.990042E-3</v>
       </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
       <c r="L232" s="1">
         <v>3.3099999999999999E-14</v>
       </c>
@@ -11638,6 +12331,9 @@
       <c r="J233">
         <v>-2.68104E-3</v>
       </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
       <c r="L233" s="1">
         <v>3.0599999999999997E-14</v>
       </c>
@@ -11676,6 +12372,9 @@
       <c r="J234">
         <v>-2.8027719999999998E-3</v>
       </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
       <c r="L234" s="1">
         <v>3.17E-14</v>
       </c>
@@ -11714,6 +12413,9 @@
       <c r="J235">
         <v>-4.0541919999999999E-3</v>
       </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
       <c r="L235" s="1">
         <v>4.3200000000000001E-14</v>
       </c>
@@ -11752,6 +12454,9 @@
       <c r="J236">
         <v>-3.4806759999999998E-3</v>
       </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
       <c r="L236" s="1">
         <v>3.7900000000000001E-14</v>
       </c>
@@ -11790,6 +12495,9 @@
       <c r="J237">
         <v>-2.1581199999999999E-3</v>
       </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
       <c r="L237" s="1">
         <v>2.5599999999999999E-14</v>
       </c>
@@ -11828,6 +12536,9 @@
       <c r="J238">
         <v>-3.162125E-3</v>
       </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
       <c r="L238" s="1">
         <v>3.5000000000000002E-14</v>
       </c>
@@ -11866,6 +12577,9 @@
       <c r="J239">
         <v>-2.82993E-3</v>
       </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
       <c r="L239" s="1">
         <v>3.1800000000000001E-14</v>
       </c>
@@ -11904,6 +12618,9 @@
       <c r="J240">
         <v>-2.8152199999999998E-3</v>
       </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
       <c r="L240" s="1">
         <v>3.1800000000000001E-14</v>
       </c>
@@ -11942,6 +12659,9 @@
       <c r="J241">
         <v>-2.4188539999999998E-3</v>
       </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
       <c r="L241" s="1">
         <v>2.8000000000000001E-14</v>
       </c>
@@ -11980,6 +12700,9 @@
       <c r="J242">
         <v>-2.0067890000000001E-3</v>
       </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
       <c r="L242" s="1">
         <v>2.41E-14</v>
       </c>
@@ -12018,6 +12741,9 @@
       <c r="J243">
         <v>-3.007844E-3</v>
       </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
       <c r="L243" s="1">
         <v>3.3599999999999997E-14</v>
       </c>
@@ -12056,6 +12782,9 @@
       <c r="J244">
         <v>-2.923602E-3</v>
       </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
       <c r="L244" s="1">
         <v>3.2999999999999998E-14</v>
       </c>
@@ -12094,6 +12823,9 @@
       <c r="J245">
         <v>-2.9524500000000001E-3</v>
       </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
       <c r="L245" s="1">
         <v>3.3300000000000001E-14</v>
       </c>
@@ -12132,6 +12864,9 @@
       <c r="J246">
         <v>-2.9558129999999998E-3</v>
       </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
       <c r="L246" s="1">
         <v>3.3599999999999997E-14</v>
       </c>
@@ -12170,6 +12905,9 @@
       <c r="J247">
         <v>-3.069193E-3</v>
       </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
       <c r="L247" s="1">
         <v>3.4300000000000003E-14</v>
       </c>
@@ -12208,6 +12946,9 @@
       <c r="J248">
         <v>-3.1046379999999998E-3</v>
       </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
       <c r="L248" s="1">
         <v>3.4900000000000001E-14</v>
       </c>
@@ -12246,6 +12987,9 @@
       <c r="J249">
         <v>-3.0446340000000001E-3</v>
       </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
       <c r="L249" s="1">
         <v>3.3699999999999998E-14</v>
       </c>
@@ -12284,6 +13028,9 @@
       <c r="J250">
         <v>-2.7320270000000002E-3</v>
       </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
       <c r="L250" s="1">
         <v>3.1200000000000002E-14</v>
       </c>
@@ -12322,6 +13069,9 @@
       <c r="J251">
         <v>-2.8561379999999998E-3</v>
       </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
       <c r="L251" s="1">
         <v>3.24E-14</v>
       </c>
@@ -12360,6 +13110,9 @@
       <c r="J252">
         <v>-4.7491529999999999E-3</v>
       </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
       <c r="L252" s="1">
         <v>4.9599999999999998E-14</v>
       </c>
@@ -12398,6 +13151,9 @@
       <c r="J253">
         <v>-4.0975760000000003E-3</v>
       </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
       <c r="L253" s="1">
         <v>4.3599999999999998E-14</v>
       </c>
@@ -12436,6 +13192,9 @@
       <c r="J254">
         <v>-2.5512130000000001E-3</v>
       </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
       <c r="L254" s="1">
         <v>2.9000000000000003E-14</v>
       </c>
@@ -12474,6 +13233,9 @@
       <c r="J255">
         <v>-3.7308799999999998E-3</v>
       </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
       <c r="L255" s="1">
         <v>4.0200000000000002E-14</v>
       </c>
@@ -12512,6 +13274,9 @@
       <c r="J256">
         <v>-3.320974E-3</v>
       </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
       <c r="L256" s="1">
         <v>3.6300000000000001E-14</v>
       </c>
@@ -12550,6 +13315,9 @@
       <c r="J257">
         <v>-3.3345850000000002E-3</v>
       </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
       <c r="L257" s="1">
         <v>3.6400000000000001E-14</v>
       </c>
@@ -12588,6 +13356,9 @@
       <c r="J258">
         <v>-2.842851E-3</v>
       </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
       <c r="L258" s="1">
         <v>3.17E-14</v>
       </c>
@@ -12626,6 +13397,9 @@
       <c r="J259">
         <v>-2.3626540000000001E-3</v>
       </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
       <c r="L259" s="1">
         <v>2.72E-14</v>
       </c>
@@ -12664,6 +13438,9 @@
       <c r="J260">
         <v>-3.6212380000000001E-3</v>
       </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
       <c r="L260" s="1">
         <v>3.92E-14</v>
       </c>
@@ -12702,6 +13479,9 @@
       <c r="J261">
         <v>-3.502191E-3</v>
       </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
       <c r="L261" s="1">
         <v>3.8299999999999998E-14</v>
       </c>
@@ -12740,6 +13520,9 @@
       <c r="J262">
         <v>-3.4821000000000001E-3</v>
       </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
       <c r="L262" s="1">
         <v>3.8100000000000003E-14</v>
       </c>
@@ -12778,6 +13561,9 @@
       <c r="J263">
         <v>-3.4960080000000001E-3</v>
       </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
       <c r="L263" s="1">
         <v>3.8600000000000001E-14</v>
       </c>
@@ -12816,6 +13602,9 @@
       <c r="J264">
         <v>-3.7243509999999999E-3</v>
       </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
       <c r="L264" s="1">
         <v>4.0399999999999997E-14</v>
       </c>
@@ -12854,6 +13643,9 @@
       <c r="J265">
         <v>-3.6083700000000001E-3</v>
       </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
       <c r="L265" s="1">
         <v>3.9500000000000002E-14</v>
       </c>
@@ -12892,6 +13684,9 @@
       <c r="J266">
         <v>-3.582689E-3</v>
       </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
       <c r="L266" s="1">
         <v>3.8600000000000001E-14</v>
       </c>
@@ -12930,6 +13725,9 @@
       <c r="J267">
         <v>-3.2234540000000002E-3</v>
       </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
       <c r="L267" s="1">
         <v>3.5700000000000002E-14</v>
       </c>
@@ -12968,6 +13766,9 @@
       <c r="J268">
         <v>-3.3161750000000002E-3</v>
       </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
       <c r="L268" s="1">
         <v>3.6500000000000002E-14</v>
       </c>
@@ -13006,6 +13807,9 @@
       <c r="J269">
         <v>-0.02</v>
       </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
       <c r="L269" s="1">
         <v>9.949999999999999E-13</v>
       </c>
@@ -13044,6 +13848,9 @@
       <c r="J270">
         <v>0.01</v>
       </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
       <c r="L270" s="1">
         <v>1.8899999999999999E-10</v>
       </c>
@@ -13082,6 +13889,9 @@
       <c r="J271">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
       <c r="L271" s="1">
         <v>4.3599999999999998E-14</v>
       </c>
@@ -13120,6 +13930,9 @@
       <c r="J272">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
       <c r="L272" s="1">
         <v>4.8500000000000002E-14</v>
       </c>
@@ -13158,6 +13971,9 @@
       <c r="J273">
         <v>0</v>
       </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
       <c r="L273" s="1">
         <v>2.64E-14</v>
       </c>
@@ -13196,6 +14012,9 @@
       <c r="J274">
         <v>-1.696</v>
       </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
       <c r="L274" s="1">
         <v>1.3399999999999999E-12</v>
       </c>
@@ -13234,6 +14053,9 @@
       <c r="J275">
         <v>2.14E-4</v>
       </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
       <c r="L275" s="1">
         <v>2.3800000000000002E-16</v>
       </c>
@@ -13272,6 +14094,9 @@
       <c r="J276">
         <v>-1.7050000000000001</v>
       </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
       <c r="L276" s="1">
         <v>2.0499999999999999E-12</v>
       </c>
@@ -13310,6 +14135,9 @@
       <c r="J277">
         <v>0.11</v>
       </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
       <c r="L277" s="1">
         <v>8.9100000000000003E-10</v>
       </c>
@@ -13348,6 +14176,9 @@
       <c r="J278">
         <v>0.1</v>
       </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
       <c r="L278" s="1">
         <v>8.9100000000000003E-10</v>
       </c>
@@ -13386,6 +14217,9 @@
       <c r="J279">
         <v>-0.01</v>
       </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
       <c r="L279" s="1">
         <v>7.5199999999999996E-11</v>
       </c>
@@ -13424,6 +14258,9 @@
       <c r="J280">
         <v>-1.83</v>
       </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
       <c r="L280" s="1">
         <v>4.9900000000000003E-12</v>
       </c>
@@ -13462,6 +14299,9 @@
       <c r="J281">
         <v>0.01</v>
       </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
       <c r="L281" s="1">
         <v>1.7999999999999999E-11</v>
       </c>
@@ -13500,6 +14340,9 @@
       <c r="J282">
         <v>0</v>
       </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
       <c r="L282">
         <v>3.2499999999999997E-5</v>
       </c>
@@ -13538,6 +14381,9 @@
       <c r="J283">
         <v>0</v>
       </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
       <c r="L283">
         <v>4.3099999999999997E-5</v>
       </c>
@@ -13576,6 +14422,9 @@
       <c r="J284">
         <v>0.2</v>
       </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
       <c r="L284" s="1">
         <v>-6.6399999999999998E-11</v>
       </c>
@@ -13611,6 +14460,9 @@
       <c r="J285">
         <v>0.03</v>
       </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
       <c r="L285" s="1">
         <v>8.2000000000000004E-13</v>
       </c>
@@ -13649,6 +14501,9 @@
       <c r="J286">
         <v>-1.6990000000000001</v>
       </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
       <c r="L286" s="1">
         <v>2.96E-13</v>
       </c>
@@ -13687,6 +14542,9 @@
       <c r="J287">
         <v>0.04</v>
       </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
       <c r="L287" s="1">
         <v>5.2800000000000001E-11</v>
       </c>
@@ -13724,6 +14582,9 @@
       </c>
       <c r="J288">
         <v>0.05</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
       </c>
       <c r="L288" s="1">
         <v>1.3399999999999999E-12</v>

--- a/references/background_data/a1-a3.xlsx
+++ b/references/background_data/a1-a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EBAC8-13DA-46D9-AAC6-AB638A3DD37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A7B2AA-7806-4278-A3A2-B09EAE6A4F70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>density</t>
   </si>
   <si>
-    <t>Stored Carbon C02eq/kg</t>
-  </si>
-  <si>
     <t>acp_mfg</t>
   </si>
   <si>
@@ -1933,6 +1930,9 @@
   </si>
   <si>
     <t>Aluminum curtain wall system, YKK AP - EPD</t>
+  </si>
+  <si>
+    <t>stored_carbon_mfg</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2780,7 @@
   <dimension ref="A1:M288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K288"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,42 +2805,42 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>1040</v>
@@ -2872,16 +2872,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>803</v>
@@ -2913,16 +2913,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>1484</v>
@@ -2954,16 +2954,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1050</v>
@@ -2995,16 +2995,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>7.9</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>2750</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
       </c>
       <c r="E8">
         <v>2750</v>
@@ -3118,16 +3118,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
       <c r="E9">
         <v>2700</v>
@@ -3159,16 +3159,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
       <c r="E10">
         <v>2750</v>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>635</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
       <c r="E11">
         <v>6.2</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
       <c r="E12">
         <v>5.9</v>
@@ -3282,16 +3282,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
       <c r="E13">
         <v>2750</v>
@@ -3323,16 +3323,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
       <c r="E14">
         <v>2750</v>
@@ -3364,16 +3364,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
       <c r="E15">
         <v>2750</v>
@@ -3405,16 +3405,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
       </c>
       <c r="E16">
         <v>8.27</v>
@@ -3446,16 +3446,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
       <c r="E17">
         <v>2750</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
       </c>
       <c r="E18">
         <v>9.77</v>
@@ -3528,16 +3528,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
       </c>
       <c r="E19">
         <v>673</v>
@@ -3569,16 +3569,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
       </c>
       <c r="E20">
         <v>9.74</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
       </c>
       <c r="E21">
         <v>741</v>
@@ -3651,16 +3651,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
       <c r="E22">
         <v>689</v>
@@ -3692,16 +3692,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
       </c>
       <c r="E23">
         <v>2000</v>
@@ -3733,16 +3733,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -3774,16 +3774,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>80</v>
@@ -3815,16 +3815,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
       </c>
       <c r="E26">
         <v>490</v>
@@ -3856,16 +3856,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
       </c>
       <c r="E27">
         <v>2700</v>
@@ -3897,16 +3897,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
       </c>
       <c r="E28">
         <v>550</v>
@@ -3938,16 +3938,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
       </c>
       <c r="E29">
         <v>927</v>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
       </c>
       <c r="E30">
         <v>2162.5</v>
@@ -4020,16 +4020,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
       </c>
       <c r="E31">
         <v>35.6</v>
@@ -4061,16 +4061,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
         <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
       </c>
       <c r="E32">
         <v>2750</v>
@@ -4102,16 +4102,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>87</v>
       </c>
       <c r="E33">
         <v>7900</v>
@@ -4143,16 +4143,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
       </c>
       <c r="E34">
         <v>434</v>
@@ -4184,16 +4184,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
       </c>
       <c r="E35">
         <v>28.9</v>
@@ -4225,16 +4225,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>93</v>
       </c>
       <c r="E36">
         <v>28.9</v>
@@ -4266,16 +4266,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
       </c>
       <c r="E37">
         <v>2.0699999999999998</v>
@@ -4307,16 +4307,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
       </c>
       <c r="E38">
         <v>0.76200000000000001</v>
@@ -4348,16 +4348,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>100</v>
       </c>
       <c r="E39">
         <v>24</v>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
       </c>
       <c r="E40">
         <v>720</v>
@@ -4430,16 +4430,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
       </c>
       <c r="E41">
         <v>2900</v>
@@ -4471,16 +4471,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
       </c>
       <c r="E42">
         <v>2712</v>
@@ -4512,16 +4512,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
         <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>108</v>
       </c>
       <c r="E43">
         <v>8700</v>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
       </c>
       <c r="E44">
         <v>8940</v>
@@ -4594,16 +4594,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
       </c>
       <c r="E45">
         <v>7850</v>
@@ -4635,16 +4635,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
       </c>
       <c r="E46">
         <v>8000</v>
@@ -4676,16 +4676,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
       </c>
       <c r="E47">
         <v>1350</v>
@@ -4717,16 +4717,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>118</v>
       </c>
       <c r="E48">
         <v>12</v>
@@ -4758,16 +4758,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s">
-        <v>120</v>
       </c>
       <c r="E49">
         <v>800</v>
@@ -4799,16 +4799,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
         <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>122</v>
       </c>
       <c r="E50">
         <v>750</v>
@@ -4840,16 +4840,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
       </c>
       <c r="E51">
         <v>1270</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s">
-        <v>126</v>
       </c>
       <c r="E52">
         <v>1.6619999999999999</v>
@@ -4922,16 +4922,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
         <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
       </c>
       <c r="E53">
         <v>2.54</v>
@@ -4963,16 +4963,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
         <v>129</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
       </c>
       <c r="E54">
         <v>0.32250000000000001</v>
@@ -5004,16 +5004,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
         <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="s">
-        <v>132</v>
       </c>
       <c r="E55">
         <v>2580</v>
@@ -5045,16 +5045,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
         <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" t="s">
-        <v>134</v>
       </c>
       <c r="E56">
         <v>7850</v>
@@ -5086,16 +5086,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
         <v>135</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" t="s">
-        <v>136</v>
       </c>
       <c r="E57">
         <v>2291</v>
@@ -5127,16 +5127,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>138</v>
-      </c>
-      <c r="D58" t="s">
-        <v>139</v>
       </c>
       <c r="E58">
         <v>28.75</v>
@@ -5168,16 +5168,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
         <v>140</v>
       </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>141</v>
-      </c>
-      <c r="D59" t="s">
-        <v>142</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -5209,16 +5209,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
       </c>
       <c r="E60">
         <v>2690</v>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
         <v>145</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" t="s">
-        <v>146</v>
       </c>
       <c r="E61">
         <v>2000</v>
@@ -5291,16 +5291,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
         <v>147</v>
       </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>148</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
       </c>
       <c r="E62">
         <v>21.4</v>
@@ -5332,16 +5332,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>151</v>
-      </c>
-      <c r="D63" t="s">
-        <v>152</v>
       </c>
       <c r="E63">
         <v>16</v>
@@ -5373,16 +5373,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
         <v>153</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" t="s">
-        <v>154</v>
       </c>
       <c r="E64">
         <v>2500</v>
@@ -5414,16 +5414,16 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" t="s">
         <v>155</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" t="s">
-        <v>156</v>
       </c>
       <c r="E65">
         <v>2500</v>
@@ -5455,16 +5455,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
         <v>157</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" t="s">
-        <v>158</v>
       </c>
       <c r="E66">
         <v>32.4</v>
@@ -5496,16 +5496,16 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>161</v>
       </c>
       <c r="E67">
         <v>533.97</v>
@@ -5537,16 +5537,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>163</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
       </c>
       <c r="E68">
         <v>705</v>
@@ -5578,16 +5578,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>166</v>
-      </c>
-      <c r="D69" t="s">
-        <v>167</v>
       </c>
       <c r="E69">
         <v>529</v>
@@ -5619,16 +5619,16 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
         <v>168</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" t="s">
-        <v>169</v>
       </c>
       <c r="E70">
         <v>117</v>
@@ -5660,16 +5660,16 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
         <v>170</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>171</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
       </c>
       <c r="E71">
         <v>833</v>
@@ -5701,16 +5701,16 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
         <v>173</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" t="s">
-        <v>174</v>
       </c>
       <c r="E72">
         <v>13.25</v>
@@ -5742,16 +5742,16 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
         <v>175</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" t="s">
-        <v>176</v>
       </c>
       <c r="E73">
         <v>16.3</v>
@@ -5783,16 +5783,16 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" t="s">
         <v>177</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>177</v>
-      </c>
-      <c r="D74" t="s">
-        <v>178</v>
       </c>
       <c r="E74">
         <v>21.25</v>
@@ -5824,16 +5824,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75">
         <v>21.25</v>
@@ -5865,16 +5865,16 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76">
         <v>21.25</v>
@@ -5906,16 +5906,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
         <v>181</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" t="s">
-        <v>182</v>
       </c>
       <c r="E77">
         <v>20.97</v>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
         <v>183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" t="s">
-        <v>184</v>
       </c>
       <c r="E78">
         <v>0.1333</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>186</v>
-      </c>
-      <c r="D79" t="s">
-        <v>187</v>
       </c>
       <c r="E79">
         <v>12.356</v>
@@ -6029,16 +6029,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
         <v>188</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" t="s">
-        <v>189</v>
       </c>
       <c r="E80">
         <v>515</v>
@@ -6070,16 +6070,16 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
         <v>190</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>191</v>
       </c>
       <c r="E81">
         <v>500</v>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" t="s">
         <v>192</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>193</v>
       </c>
       <c r="E82">
         <v>545.87</v>
@@ -6152,16 +6152,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
         <v>194</v>
       </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>195</v>
-      </c>
-      <c r="D83" t="s">
-        <v>196</v>
       </c>
       <c r="E83">
         <v>545.87</v>
@@ -6193,16 +6193,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
         <v>197</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" t="s">
-        <v>198</v>
       </c>
       <c r="E84">
         <v>1915.2432470000001</v>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" t="s">
         <v>199</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
-        <v>199</v>
-      </c>
-      <c r="D85" t="s">
-        <v>200</v>
       </c>
       <c r="E85">
         <v>2000.6749910000001</v>
@@ -6275,16 +6275,16 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" t="s">
         <v>201</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" t="s">
-        <v>202</v>
       </c>
       <c r="E86">
         <v>2012.5405109999999</v>
@@ -6316,16 +6316,16 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" t="s">
         <v>203</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" t="s">
-        <v>204</v>
       </c>
       <c r="E87">
         <v>2046.969059</v>
@@ -6357,16 +6357,16 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" t="s">
         <v>205</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" t="s">
-        <v>206</v>
       </c>
       <c r="E88">
         <v>1954.992739</v>
@@ -6398,16 +6398,16 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
         <v>207</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" t="s">
-        <v>208</v>
       </c>
       <c r="E89">
         <v>2073.0732029999999</v>
@@ -6439,16 +6439,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
         <v>209</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" t="s">
-        <v>210</v>
       </c>
       <c r="E90">
         <v>1953.2129110000001</v>
@@ -6480,16 +6480,16 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
         <v>211</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>211</v>
-      </c>
-      <c r="D91" t="s">
-        <v>212</v>
       </c>
       <c r="E91">
         <v>1951.4330829999999</v>
@@ -6521,16 +6521,16 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" t="s">
         <v>213</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" t="s">
-        <v>214</v>
       </c>
       <c r="E92">
         <v>1874.8633990000001</v>
@@ -6562,16 +6562,16 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
         <v>215</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" t="s">
-        <v>216</v>
       </c>
       <c r="E93">
         <v>1875.4566749999999</v>
@@ -6603,16 +6603,16 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" t="s">
         <v>217</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" t="s">
-        <v>217</v>
-      </c>
-      <c r="D94" t="s">
-        <v>218</v>
       </c>
       <c r="E94">
         <v>1873.0835709999999</v>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" t="s">
         <v>219</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" t="s">
-        <v>220</v>
       </c>
       <c r="E95">
         <v>1874.270123</v>
@@ -6685,16 +6685,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
         <v>221</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" t="s">
-        <v>221</v>
-      </c>
-      <c r="D96" t="s">
-        <v>222</v>
       </c>
       <c r="E96">
         <v>1876.643227</v>
@@ -6726,16 +6726,16 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
         <v>223</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" t="s">
-        <v>224</v>
       </c>
       <c r="E97">
         <v>1875.4566749999999</v>
@@ -6767,16 +6767,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="s">
         <v>225</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" t="s">
-        <v>226</v>
       </c>
       <c r="E98">
         <v>1873.0835709999999</v>
@@ -6808,16 +6808,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" t="s">
         <v>227</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" t="s">
-        <v>228</v>
       </c>
       <c r="E99">
         <v>1874.8633990000001</v>
@@ -6849,16 +6849,16 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" t="s">
         <v>229</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>229</v>
-      </c>
-      <c r="D100" t="s">
-        <v>230</v>
       </c>
       <c r="E100">
         <v>1876.643227</v>
@@ -6890,16 +6890,16 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" t="s">
         <v>231</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>231</v>
-      </c>
-      <c r="D101" t="s">
-        <v>232</v>
       </c>
       <c r="E101">
         <v>1917.0230750000001</v>
@@ -6931,16 +6931,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" t="s">
         <v>233</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
-        <v>233</v>
-      </c>
-      <c r="D102" t="s">
-        <v>234</v>
       </c>
       <c r="E102">
         <v>1983.4699869999999</v>
@@ -6972,16 +6972,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" t="s">
         <v>235</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>235</v>
-      </c>
-      <c r="D103" t="s">
-        <v>236</v>
       </c>
       <c r="E103">
         <v>1993.5556790000001</v>
@@ -7013,16 +7013,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" t="s">
         <v>237</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" t="s">
-        <v>237</v>
-      </c>
-      <c r="D104" t="s">
-        <v>238</v>
       </c>
       <c r="E104">
         <v>2033.9169870000001</v>
@@ -7054,16 +7054,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" t="s">
         <v>239</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105" t="s">
-        <v>240</v>
       </c>
       <c r="E105">
         <v>1927.1087669999999</v>
@@ -7095,16 +7095,16 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" t="s">
         <v>241</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" t="s">
-        <v>241</v>
-      </c>
-      <c r="D106" t="s">
-        <v>242</v>
       </c>
       <c r="E106">
         <v>2062.9875109999998</v>
@@ -7136,16 +7136,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" t="s">
         <v>243</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" t="s">
-        <v>243</v>
-      </c>
-      <c r="D107" t="s">
-        <v>244</v>
       </c>
       <c r="E107">
         <v>1924.7356629999999</v>
@@ -7177,16 +7177,16 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" t="s">
         <v>245</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D108" t="s">
-        <v>246</v>
       </c>
       <c r="E108">
         <v>1940.1608389999999</v>
@@ -7218,16 +7218,16 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" t="s">
         <v>247</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" t="s">
-        <v>247</v>
-      </c>
-      <c r="D109" t="s">
-        <v>248</v>
       </c>
       <c r="E109">
         <v>1873.639768</v>
@@ -7259,16 +7259,16 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" t="s">
         <v>249</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" t="s">
-        <v>249</v>
-      </c>
-      <c r="D110" t="s">
-        <v>250</v>
       </c>
       <c r="E110">
         <v>1873.0464919999999</v>
@@ -7300,16 +7300,16 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" t="s">
         <v>251</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" t="s">
-        <v>251</v>
-      </c>
-      <c r="D111" t="s">
-        <v>252</v>
       </c>
       <c r="E111">
         <v>1874.2330440000001</v>
@@ -7341,16 +7341,16 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" t="s">
         <v>253</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" t="s">
-        <v>253</v>
-      </c>
-      <c r="D112" t="s">
-        <v>254</v>
       </c>
       <c r="E112">
         <v>1876.012872</v>
@@ -7382,16 +7382,16 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" t="s">
         <v>255</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" t="s">
-        <v>255</v>
-      </c>
-      <c r="D113" t="s">
-        <v>256</v>
       </c>
       <c r="E113">
         <v>1873.0464919999999</v>
@@ -7423,16 +7423,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" t="s">
         <v>257</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" t="s">
-        <v>257</v>
-      </c>
-      <c r="D114" t="s">
-        <v>258</v>
       </c>
       <c r="E114">
         <v>1877.1994239999999</v>
@@ -7464,16 +7464,16 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" t="s">
         <v>259</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" t="s">
-        <v>259</v>
-      </c>
-      <c r="D115" t="s">
-        <v>260</v>
       </c>
       <c r="E115">
         <v>1874.2330440000001</v>
@@ -7505,16 +7505,16 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" t="s">
         <v>261</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" t="s">
-        <v>262</v>
       </c>
       <c r="E116">
         <v>1876.012872</v>
@@ -7546,16 +7546,16 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" t="s">
         <v>263</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" t="s">
-        <v>264</v>
       </c>
       <c r="E117">
         <v>1874.2330440000001</v>
@@ -7587,16 +7587,16 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" t="s">
         <v>265</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>265</v>
-      </c>
-      <c r="D118" t="s">
-        <v>266</v>
       </c>
       <c r="E118">
         <v>1873.2689700000001</v>
@@ -7628,16 +7628,16 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" t="s">
         <v>267</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" t="s">
-        <v>267</v>
-      </c>
-      <c r="D119" t="s">
-        <v>268</v>
       </c>
       <c r="E119">
         <v>1960.480542</v>
@@ -7669,16 +7669,16 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" t="s">
         <v>269</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" t="s">
-        <v>269</v>
-      </c>
-      <c r="D120" t="s">
-        <v>270</v>
       </c>
       <c r="E120">
         <v>1987.771238</v>
@@ -7710,16 +7710,16 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" t="s">
         <v>271</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" t="s">
-        <v>271</v>
-      </c>
-      <c r="D121" t="s">
-        <v>272</v>
       </c>
       <c r="E121">
         <v>2026.9459939999999</v>
@@ -7751,16 +7751,16 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" t="s">
         <v>273</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" t="s">
-        <v>274</v>
       </c>
       <c r="E122">
         <v>1909.4588060000001</v>
@@ -7792,16 +7792,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" t="s">
         <v>275</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" t="s">
-        <v>276</v>
       </c>
       <c r="E123">
         <v>2061.949278</v>
@@ -7833,16 +7833,16 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" t="s">
         <v>277</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" t="s">
-        <v>277</v>
-      </c>
-      <c r="D124" t="s">
-        <v>278</v>
       </c>
       <c r="E124">
         <v>1906.492426</v>
@@ -7874,16 +7874,16 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" t="s">
         <v>279</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
-        <v>279</v>
-      </c>
-      <c r="D125" t="s">
-        <v>280</v>
       </c>
       <c r="E125">
         <v>1930.816742</v>
@@ -7915,16 +7915,16 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" t="s">
         <v>281</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" t="s">
-        <v>281</v>
-      </c>
-      <c r="D126" t="s">
-        <v>282</v>
       </c>
       <c r="E126">
         <v>1876.569068</v>
@@ -7956,16 +7956,16 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>282</v>
+      </c>
+      <c r="D127" t="s">
         <v>283</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" t="s">
-        <v>283</v>
-      </c>
-      <c r="D127" t="s">
-        <v>284</v>
       </c>
       <c r="E127">
         <v>1875.3825159999999</v>
@@ -7997,16 +7997,16 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" t="s">
         <v>285</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" t="s">
-        <v>285</v>
-      </c>
-      <c r="D128" t="s">
-        <v>286</v>
       </c>
       <c r="E128">
         <v>1874.7892400000001</v>
@@ -8038,16 +8038,16 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" t="s">
         <v>287</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" t="s">
-        <v>287</v>
-      </c>
-      <c r="D129" t="s">
-        <v>288</v>
       </c>
       <c r="E129">
         <v>1872.4161360000001</v>
@@ -8079,16 +8079,16 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" t="s">
         <v>289</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" t="s">
-        <v>289</v>
-      </c>
-      <c r="D130" t="s">
-        <v>290</v>
       </c>
       <c r="E130">
         <v>1874.195964</v>
@@ -8120,16 +8120,16 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>290</v>
+      </c>
+      <c r="D131" t="s">
         <v>291</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" t="s">
-        <v>291</v>
-      </c>
-      <c r="D131" t="s">
-        <v>292</v>
       </c>
       <c r="E131">
         <v>1873.0094120000001</v>
@@ -8161,16 +8161,16 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>292</v>
+      </c>
+      <c r="D132" t="s">
         <v>293</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" t="s">
-        <v>293</v>
-      </c>
-      <c r="D132" t="s">
-        <v>294</v>
       </c>
       <c r="E132">
         <v>1873.6026879999999</v>
@@ -8202,16 +8202,16 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>294</v>
+      </c>
+      <c r="D133" t="s">
         <v>295</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" t="s">
-        <v>295</v>
-      </c>
-      <c r="D133" t="s">
-        <v>296</v>
       </c>
       <c r="E133">
         <v>1873.0094120000001</v>
@@ -8243,16 +8243,16 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>296</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>296</v>
+      </c>
+      <c r="D134" t="s">
         <v>297</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" t="s">
-        <v>297</v>
-      </c>
-      <c r="D134" t="s">
-        <v>298</v>
       </c>
       <c r="E134">
         <v>1876.569068</v>
@@ -8284,16 +8284,16 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>298</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" t="s">
         <v>299</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" t="s">
-        <v>299</v>
-      </c>
-      <c r="D135" t="s">
-        <v>300</v>
       </c>
       <c r="E135">
         <v>2210</v>
@@ -8325,16 +8325,16 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>300</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>300</v>
+      </c>
+      <c r="D136" t="s">
         <v>301</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" t="s">
-        <v>301</v>
-      </c>
-      <c r="D136" t="s">
-        <v>302</v>
       </c>
       <c r="E136">
         <v>1161</v>
@@ -8366,16 +8366,16 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>302</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
         <v>303</v>
       </c>
-      <c r="B137" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>304</v>
-      </c>
-      <c r="D137" t="s">
-        <v>305</v>
       </c>
       <c r="E137">
         <v>745.95</v>
@@ -8407,16 +8407,16 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
         <v>306</v>
       </c>
-      <c r="B138" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>307</v>
-      </c>
-      <c r="D138" t="s">
-        <v>308</v>
       </c>
       <c r="E138">
         <v>128</v>
@@ -8448,16 +8448,16 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
         <v>309</v>
       </c>
-      <c r="B139" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>310</v>
-      </c>
-      <c r="D139" t="s">
-        <v>311</v>
       </c>
       <c r="E139">
         <v>40</v>
@@ -8489,16 +8489,16 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>311</v>
+      </c>
+      <c r="D140" t="s">
         <v>312</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" t="s">
-        <v>312</v>
-      </c>
-      <c r="D140" t="s">
-        <v>313</v>
       </c>
       <c r="E140">
         <v>1350</v>
@@ -8530,16 +8530,16 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" t="s">
         <v>314</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" t="s">
-        <v>314</v>
-      </c>
-      <c r="D141" t="s">
-        <v>315</v>
       </c>
       <c r="E141">
         <v>1400</v>
@@ -8571,16 +8571,16 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142" t="s">
         <v>316</v>
-      </c>
-      <c r="B142" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" t="s">
-        <v>316</v>
-      </c>
-      <c r="D142" t="s">
-        <v>317</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -8612,16 +8612,16 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
         <v>318</v>
       </c>
-      <c r="B143" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>319</v>
-      </c>
-      <c r="D143" t="s">
-        <v>320</v>
       </c>
       <c r="E143">
         <v>633.84</v>
@@ -8653,16 +8653,16 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>320</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>320</v>
+      </c>
+      <c r="D144" t="s">
         <v>321</v>
-      </c>
-      <c r="B144" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" t="s">
-        <v>321</v>
-      </c>
-      <c r="D144" t="s">
-        <v>322</v>
       </c>
       <c r="E144">
         <v>1362</v>
@@ -8694,16 +8694,16 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>322</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>322</v>
+      </c>
+      <c r="D145" t="s">
         <v>323</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" t="s">
-        <v>323</v>
-      </c>
-      <c r="D145" t="s">
-        <v>324</v>
       </c>
       <c r="E145">
         <v>1490</v>
@@ -8735,16 +8735,16 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" t="s">
         <v>325</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" t="s">
-        <v>325</v>
-      </c>
-      <c r="D146" t="s">
-        <v>326</v>
       </c>
       <c r="E146">
         <v>630</v>
@@ -8776,16 +8776,16 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>326</v>
+      </c>
+      <c r="D147" t="s">
         <v>327</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" t="s">
-        <v>327</v>
-      </c>
-      <c r="D147" t="s">
-        <v>328</v>
       </c>
       <c r="E147">
         <v>480</v>
@@ -8817,16 +8817,16 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>328</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
         <v>329</v>
       </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>330</v>
-      </c>
-      <c r="D148" t="s">
-        <v>331</v>
       </c>
       <c r="E148">
         <v>29.15</v>
@@ -8858,16 +8858,16 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
         <v>332</v>
       </c>
-      <c r="B149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>333</v>
-      </c>
-      <c r="D149" t="s">
-        <v>334</v>
       </c>
       <c r="E149">
         <v>546</v>
@@ -8899,16 +8899,16 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
         <v>335</v>
       </c>
-      <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>336</v>
-      </c>
-      <c r="D150" t="s">
-        <v>337</v>
       </c>
       <c r="E150">
         <v>491.17</v>
@@ -8940,16 +8940,16 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>337</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" t="s">
         <v>338</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" t="s">
-        <v>338</v>
-      </c>
-      <c r="D151" t="s">
-        <v>339</v>
       </c>
       <c r="E151">
         <v>1180</v>
@@ -8981,16 +8981,16 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>339</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>339</v>
+      </c>
+      <c r="D152" t="s">
         <v>340</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" t="s">
-        <v>340</v>
-      </c>
-      <c r="D152" t="s">
-        <v>341</v>
       </c>
       <c r="E152">
         <v>1020</v>
@@ -9022,16 +9022,16 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>341</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
         <v>342</v>
       </c>
-      <c r="B153" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>343</v>
-      </c>
-      <c r="D153" t="s">
-        <v>344</v>
       </c>
       <c r="E153">
         <v>3150</v>
@@ -9063,16 +9063,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>344</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>344</v>
+      </c>
+      <c r="D154" t="s">
         <v>345</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" t="s">
-        <v>345</v>
-      </c>
-      <c r="D154" t="s">
-        <v>346</v>
       </c>
       <c r="E154">
         <v>0.39</v>
@@ -9104,16 +9104,16 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>346</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>346</v>
+      </c>
+      <c r="D155" t="s">
         <v>347</v>
-      </c>
-      <c r="B155" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" t="s">
-        <v>347</v>
-      </c>
-      <c r="D155" t="s">
-        <v>348</v>
       </c>
       <c r="E155">
         <v>1180</v>
@@ -9145,16 +9145,16 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>348</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
         <v>349</v>
       </c>
-      <c r="B156" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>350</v>
-      </c>
-      <c r="D156" t="s">
-        <v>351</v>
       </c>
       <c r="E156">
         <v>705</v>
@@ -9186,16 +9186,16 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>351</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>351</v>
+      </c>
+      <c r="D157" t="s">
         <v>352</v>
-      </c>
-      <c r="B157" t="s">
-        <v>14</v>
-      </c>
-      <c r="C157" t="s">
-        <v>352</v>
-      </c>
-      <c r="D157" t="s">
-        <v>353</v>
       </c>
       <c r="E157">
         <v>65</v>
@@ -9227,16 +9227,16 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>353</v>
+      </c>
+      <c r="D158" t="s">
         <v>354</v>
-      </c>
-      <c r="B158" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" t="s">
-        <v>354</v>
-      </c>
-      <c r="D158" t="s">
-        <v>355</v>
       </c>
       <c r="E158">
         <v>2670</v>
@@ -9268,16 +9268,16 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>355</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
         <v>356</v>
       </c>
-      <c r="B159" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>357</v>
-      </c>
-      <c r="D159" t="s">
-        <v>358</v>
       </c>
       <c r="E159">
         <v>11.6</v>
@@ -9309,16 +9309,16 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>358</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>358</v>
+      </c>
+      <c r="D160" t="s">
         <v>359</v>
-      </c>
-      <c r="B160" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" t="s">
-        <v>359</v>
-      </c>
-      <c r="D160" t="s">
-        <v>360</v>
       </c>
       <c r="E160">
         <v>1040</v>
@@ -9350,16 +9350,16 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>360</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161" t="s">
         <v>361</v>
-      </c>
-      <c r="B161" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" t="s">
-        <v>361</v>
-      </c>
-      <c r="D161" t="s">
-        <v>362</v>
       </c>
       <c r="E161">
         <v>2.92</v>
@@ -9391,16 +9391,16 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>362</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>362</v>
+      </c>
+      <c r="D162" t="s">
         <v>363</v>
-      </c>
-      <c r="B162" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" t="s">
-        <v>364</v>
       </c>
       <c r="E162">
         <v>24.3</v>
@@ -9432,16 +9432,16 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>364</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>364</v>
+      </c>
+      <c r="D163" t="s">
         <v>365</v>
-      </c>
-      <c r="B163" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" t="s">
-        <v>365</v>
-      </c>
-      <c r="D163" t="s">
-        <v>366</v>
       </c>
       <c r="E163">
         <v>47.1</v>
@@ -9473,16 +9473,16 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>366</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+      <c r="D164" t="s">
         <v>367</v>
-      </c>
-      <c r="B164" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" t="s">
-        <v>367</v>
-      </c>
-      <c r="D164" t="s">
-        <v>368</v>
       </c>
       <c r="E164">
         <v>23.71</v>
@@ -9514,16 +9514,16 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>368</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>368</v>
+      </c>
+      <c r="D165" t="s">
         <v>369</v>
-      </c>
-      <c r="B165" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" t="s">
-        <v>369</v>
-      </c>
-      <c r="D165" t="s">
-        <v>370</v>
       </c>
       <c r="E165">
         <v>26.15</v>
@@ -9555,16 +9555,16 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>370</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
         <v>371</v>
       </c>
-      <c r="B166" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>372</v>
-      </c>
-      <c r="D166" t="s">
-        <v>373</v>
       </c>
       <c r="E166">
         <v>40</v>
@@ -9596,16 +9596,16 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
         <v>374</v>
       </c>
-      <c r="B167" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>375</v>
-      </c>
-      <c r="D167" t="s">
-        <v>376</v>
       </c>
       <c r="E167">
         <v>40</v>
@@ -9637,16 +9637,16 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>376</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
         <v>377</v>
       </c>
-      <c r="B168" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>378</v>
-      </c>
-      <c r="D168" t="s">
-        <v>379</v>
       </c>
       <c r="E168">
         <v>53</v>
@@ -9678,16 +9678,16 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>379</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
         <v>380</v>
       </c>
-      <c r="B169" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>381</v>
-      </c>
-      <c r="D169" t="s">
-        <v>382</v>
       </c>
       <c r="E169">
         <v>53</v>
@@ -9719,16 +9719,16 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>382</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
         <v>383</v>
       </c>
-      <c r="B170" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>384</v>
-      </c>
-      <c r="D170" t="s">
-        <v>385</v>
       </c>
       <c r="E170">
         <v>32</v>
@@ -9760,16 +9760,16 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>385</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
         <v>386</v>
       </c>
-      <c r="B171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>387</v>
-      </c>
-      <c r="D171" t="s">
-        <v>388</v>
       </c>
       <c r="E171">
         <v>9.6</v>
@@ -9801,16 +9801,16 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>388</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
         <v>389</v>
       </c>
-      <c r="B172" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>390</v>
-      </c>
-      <c r="D172" t="s">
-        <v>391</v>
       </c>
       <c r="E172">
         <v>7850</v>
@@ -9842,16 +9842,16 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>391</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
         <v>392</v>
       </c>
-      <c r="B173" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>393</v>
-      </c>
-      <c r="D173" t="s">
-        <v>394</v>
       </c>
       <c r="E173">
         <v>7850</v>
@@ -9883,16 +9883,16 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>394</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
         <v>395</v>
       </c>
-      <c r="B174" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>396</v>
-      </c>
-      <c r="D174" t="s">
-        <v>397</v>
       </c>
       <c r="E174">
         <v>8000</v>
@@ -9924,16 +9924,16 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>397</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
         <v>398</v>
       </c>
-      <c r="B175" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" t="s">
-        <v>399</v>
-      </c>
       <c r="D175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E175">
         <v>7850</v>
@@ -9965,16 +9965,16 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>399</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
         <v>400</v>
       </c>
-      <c r="B176" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>401</v>
-      </c>
-      <c r="D176" t="s">
-        <v>402</v>
       </c>
       <c r="E176">
         <v>7850</v>
@@ -10006,16 +10006,16 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>402</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
         <v>403</v>
       </c>
-      <c r="B177" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>404</v>
-      </c>
-      <c r="D177" t="s">
-        <v>405</v>
       </c>
       <c r="E177">
         <v>7850</v>
@@ -10047,16 +10047,16 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>405</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>405</v>
+      </c>
+      <c r="D178" t="s">
         <v>406</v>
-      </c>
-      <c r="B178" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" t="s">
-        <v>406</v>
-      </c>
-      <c r="D178" t="s">
-        <v>407</v>
       </c>
       <c r="E178">
         <v>7850</v>
@@ -10088,16 +10088,16 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>407</v>
+      </c>
+      <c r="D179" t="s">
         <v>408</v>
-      </c>
-      <c r="B179" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" t="s">
-        <v>408</v>
-      </c>
-      <c r="D179" t="s">
-        <v>409</v>
       </c>
       <c r="E179">
         <v>7850</v>
@@ -10129,16 +10129,16 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
         <v>410</v>
       </c>
-      <c r="B180" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>411</v>
-      </c>
-      <c r="D180" t="s">
-        <v>412</v>
       </c>
       <c r="E180">
         <v>7800</v>
@@ -10170,16 +10170,16 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>412</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>412</v>
+      </c>
+      <c r="D181" t="s">
         <v>413</v>
-      </c>
-      <c r="B181" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" t="s">
-        <v>413</v>
-      </c>
-      <c r="D181" t="s">
-        <v>414</v>
       </c>
       <c r="E181">
         <v>7850</v>
@@ -10211,16 +10211,16 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>414</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>414</v>
+      </c>
+      <c r="D182" t="s">
         <v>415</v>
-      </c>
-      <c r="B182" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" t="s">
-        <v>415</v>
-      </c>
-      <c r="D182" t="s">
-        <v>416</v>
       </c>
       <c r="E182">
         <v>2600</v>
@@ -10252,16 +10252,16 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>416</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183" t="s">
         <v>417</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" t="s">
-        <v>417</v>
-      </c>
-      <c r="D183" t="s">
-        <v>418</v>
       </c>
       <c r="E183">
         <v>2400</v>
@@ -10293,16 +10293,16 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>418</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>418</v>
+      </c>
+      <c r="D184" t="s">
         <v>419</v>
-      </c>
-      <c r="B184" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" t="s">
-        <v>419</v>
-      </c>
-      <c r="D184" t="s">
-        <v>420</v>
       </c>
       <c r="E184">
         <v>2245.660899</v>
@@ -10334,16 +10334,16 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>420</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>420</v>
+      </c>
+      <c r="D185" t="s">
         <v>421</v>
-      </c>
-      <c r="B185" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" t="s">
-        <v>421</v>
-      </c>
-      <c r="D185" t="s">
-        <v>422</v>
       </c>
       <c r="E185">
         <v>2213.2161179999998</v>
@@ -10375,16 +10375,16 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>422</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" t="s">
         <v>423</v>
-      </c>
-      <c r="B186" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" t="s">
-        <v>423</v>
-      </c>
-      <c r="D186" t="s">
-        <v>424</v>
       </c>
       <c r="E186">
         <v>2208.0249530000001</v>
@@ -10416,16 +10416,16 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>424</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>424</v>
+      </c>
+      <c r="D187" t="s">
         <v>425</v>
-      </c>
-      <c r="B187" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" t="s">
-        <v>425</v>
-      </c>
-      <c r="D187" t="s">
-        <v>426</v>
       </c>
       <c r="E187">
         <v>2196.0296539999999</v>
@@ -10457,16 +10457,16 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>426</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>426</v>
+      </c>
+      <c r="D188" t="s">
         <v>427</v>
-      </c>
-      <c r="B188" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" t="s">
-        <v>427</v>
-      </c>
-      <c r="D188" t="s">
-        <v>428</v>
       </c>
       <c r="E188">
         <v>2239.9135379999998</v>
@@ -10498,16 +10498,16 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>428</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>428</v>
+      </c>
+      <c r="D189" t="s">
         <v>429</v>
-      </c>
-      <c r="B189" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" t="s">
-        <v>429</v>
-      </c>
-      <c r="D189" t="s">
-        <v>430</v>
       </c>
       <c r="E189">
         <v>2177.4156189999999</v>
@@ -10539,16 +10539,16 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>430</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>430</v>
+      </c>
+      <c r="D190" t="s">
         <v>431</v>
-      </c>
-      <c r="B190" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" t="s">
-        <v>431</v>
-      </c>
-      <c r="D190" t="s">
-        <v>432</v>
       </c>
       <c r="E190">
         <v>2238.504508</v>
@@ -10580,16 +10580,16 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>432</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>432</v>
+      </c>
+      <c r="D191" t="s">
         <v>433</v>
-      </c>
-      <c r="B191" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" t="s">
-        <v>433</v>
-      </c>
-      <c r="D191" t="s">
-        <v>434</v>
       </c>
       <c r="E191">
         <v>2236.5022009999998</v>
@@ -10621,16 +10621,16 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>434</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>434</v>
+      </c>
+      <c r="D192" t="s">
         <v>435</v>
-      </c>
-      <c r="B192" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" t="s">
-        <v>435</v>
-      </c>
-      <c r="D192" t="s">
-        <v>436</v>
       </c>
       <c r="E192">
         <v>2285.0025139999998</v>
@@ -10662,16 +10662,16 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>436</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>436</v>
+      </c>
+      <c r="D193" t="s">
         <v>437</v>
-      </c>
-      <c r="B193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" t="s">
-        <v>437</v>
-      </c>
-      <c r="D193" t="s">
-        <v>438</v>
       </c>
       <c r="E193">
         <v>2311.6999340000002</v>
@@ -10703,16 +10703,16 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>438</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" t="s">
         <v>439</v>
-      </c>
-      <c r="B194" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" t="s">
-        <v>439</v>
-      </c>
-      <c r="D194" t="s">
-        <v>440</v>
       </c>
       <c r="E194">
         <v>2306.3604500000001</v>
@@ -10744,16 +10744,16 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>440</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>440</v>
+      </c>
+      <c r="D195" t="s">
         <v>441</v>
-      </c>
-      <c r="B195" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" t="s">
-        <v>441</v>
-      </c>
-      <c r="D195" t="s">
-        <v>442</v>
       </c>
       <c r="E195">
         <v>2284.4092380000002</v>
@@ -10785,16 +10785,16 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>442</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>442</v>
+      </c>
+      <c r="D196" t="s">
         <v>443</v>
-      </c>
-      <c r="B196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" t="s">
-        <v>443</v>
-      </c>
-      <c r="D196" t="s">
-        <v>444</v>
       </c>
       <c r="E196">
         <v>2382.8930540000001</v>
@@ -10826,16 +10826,16 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>444</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>444</v>
+      </c>
+      <c r="D197" t="s">
         <v>445</v>
-      </c>
-      <c r="B197" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" t="s">
-        <v>445</v>
-      </c>
-      <c r="D197" t="s">
-        <v>446</v>
       </c>
       <c r="E197">
         <v>2257.7118180000002</v>
@@ -10867,16 +10867,16 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>446</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" t="s">
         <v>447</v>
-      </c>
-      <c r="B198" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
-        <v>447</v>
-      </c>
-      <c r="D198" t="s">
-        <v>448</v>
       </c>
       <c r="E198">
         <v>2311.6999340000002</v>
@@ -10908,16 +10908,16 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>448</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>448</v>
+      </c>
+      <c r="D199" t="s">
         <v>449</v>
-      </c>
-      <c r="B199" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" t="s">
-        <v>449</v>
-      </c>
-      <c r="D199" t="s">
-        <v>450</v>
       </c>
       <c r="E199">
         <v>2273.136994</v>
@@ -10949,16 +10949,16 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>450</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>450</v>
+      </c>
+      <c r="D200" t="s">
         <v>451</v>
-      </c>
-      <c r="B200" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" t="s">
-        <v>451</v>
-      </c>
-      <c r="D200" t="s">
-        <v>452</v>
       </c>
       <c r="E200">
         <v>2302.8007940000002</v>
@@ -10990,16 +10990,16 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>452</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" t="s">
         <v>453</v>
-      </c>
-      <c r="B201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" t="s">
-        <v>453</v>
-      </c>
-      <c r="D201" t="s">
-        <v>454</v>
       </c>
       <c r="E201">
         <v>2259.714125</v>
@@ -11031,16 +11031,16 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>454</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>454</v>
+      </c>
+      <c r="D202" t="s">
         <v>455</v>
-      </c>
-      <c r="B202" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" t="s">
-        <v>455</v>
-      </c>
-      <c r="D202" t="s">
-        <v>456</v>
       </c>
       <c r="E202">
         <v>2217.7769269999999</v>
@@ -11072,16 +11072,16 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>456</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>456</v>
+      </c>
+      <c r="D203" t="s">
         <v>457</v>
-      </c>
-      <c r="B203" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" t="s">
-        <v>457</v>
-      </c>
-      <c r="D203" t="s">
-        <v>458</v>
       </c>
       <c r="E203">
         <v>2210.0272599999998</v>
@@ -11113,16 +11113,16 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>458</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>458</v>
+      </c>
+      <c r="D204" t="s">
         <v>459</v>
-      </c>
-      <c r="B204" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" t="s">
-        <v>459</v>
-      </c>
-      <c r="D204" t="s">
-        <v>460</v>
       </c>
       <c r="E204">
         <v>2195.844255</v>
@@ -11154,16 +11154,16 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>460</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>460</v>
+      </c>
+      <c r="D205" t="s">
         <v>461</v>
-      </c>
-      <c r="B205" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" t="s">
-        <v>461</v>
-      </c>
-      <c r="D205" t="s">
-        <v>462</v>
       </c>
       <c r="E205">
         <v>2251.5936590000001</v>
@@ -11195,16 +11195,16 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>462</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>462</v>
+      </c>
+      <c r="D206" t="s">
         <v>463</v>
-      </c>
-      <c r="B206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" t="s">
-        <v>463</v>
-      </c>
-      <c r="D206" t="s">
-        <v>464</v>
       </c>
       <c r="E206">
         <v>2172.4840129999998</v>
@@ -11236,16 +11236,16 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>464</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>464</v>
+      </c>
+      <c r="D207" t="s">
         <v>465</v>
-      </c>
-      <c r="B207" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" t="s">
-        <v>465</v>
-      </c>
-      <c r="D207" t="s">
-        <v>466</v>
       </c>
       <c r="E207">
         <v>2248.9980770000002</v>
@@ -11277,16 +11277,16 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>466</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>466</v>
+      </c>
+      <c r="D208" t="s">
         <v>467</v>
-      </c>
-      <c r="B208" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" t="s">
-        <v>467</v>
-      </c>
-      <c r="D208" t="s">
-        <v>468</v>
       </c>
       <c r="E208">
         <v>2247.403648</v>
@@ -11318,16 +11318,16 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>468</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>468</v>
+      </c>
+      <c r="D209" t="s">
         <v>469</v>
-      </c>
-      <c r="B209" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" t="s">
-        <v>469</v>
-      </c>
-      <c r="D209" t="s">
-        <v>470</v>
       </c>
       <c r="E209">
         <v>2297.8691869999998</v>
@@ -11359,16 +11359,16 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>470</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>470</v>
+      </c>
+      <c r="D210" t="s">
         <v>471</v>
-      </c>
-      <c r="B210" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" t="s">
-        <v>471</v>
-      </c>
-      <c r="D210" t="s">
-        <v>472</v>
       </c>
       <c r="E210">
         <v>2316.8540189999999</v>
@@ -11400,16 +11400,16 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>472</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>472</v>
+      </c>
+      <c r="D211" t="s">
         <v>473</v>
-      </c>
-      <c r="B211" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" t="s">
-        <v>473</v>
-      </c>
-      <c r="D211" t="s">
-        <v>474</v>
       </c>
       <c r="E211">
         <v>2311.5145349999998</v>
@@ -11441,16 +11441,16 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>474</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>474</v>
+      </c>
+      <c r="D212" t="s">
         <v>475</v>
-      </c>
-      <c r="B212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" t="s">
-        <v>475</v>
-      </c>
-      <c r="D212" t="s">
-        <v>476</v>
       </c>
       <c r="E212">
         <v>2291.343151</v>
@@ -11482,16 +11482,16 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>476</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>476</v>
+      </c>
+      <c r="D213" t="s">
         <v>477</v>
-      </c>
-      <c r="B213" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" t="s">
-        <v>477</v>
-      </c>
-      <c r="D213" t="s">
-        <v>478</v>
       </c>
       <c r="E213">
         <v>2398.726107</v>
@@ -11523,16 +11523,16 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>478</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>478</v>
+      </c>
+      <c r="D214" t="s">
         <v>479</v>
-      </c>
-      <c r="B214" t="s">
-        <v>14</v>
-      </c>
-      <c r="C214" t="s">
-        <v>479</v>
-      </c>
-      <c r="D214" t="s">
-        <v>480</v>
       </c>
       <c r="E214">
         <v>2258.7129709999999</v>
@@ -11564,16 +11564,16 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>480</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>480</v>
+      </c>
+      <c r="D215" t="s">
         <v>481</v>
-      </c>
-      <c r="B215" t="s">
-        <v>14</v>
-      </c>
-      <c r="C215" t="s">
-        <v>481</v>
-      </c>
-      <c r="D215" t="s">
-        <v>482</v>
       </c>
       <c r="E215">
         <v>2316.8540189999999</v>
@@ -11605,16 +11605,16 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>482</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>482</v>
+      </c>
+      <c r="D216" t="s">
         <v>483</v>
-      </c>
-      <c r="B216" t="s">
-        <v>14</v>
-      </c>
-      <c r="C216" t="s">
-        <v>483</v>
-      </c>
-      <c r="D216" t="s">
-        <v>484</v>
       </c>
       <c r="E216">
         <v>2270.5784910000002</v>
@@ -11646,16 +11646,16 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>484</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>484</v>
+      </c>
+      <c r="D217" t="s">
         <v>485</v>
-      </c>
-      <c r="B217" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" t="s">
-        <v>485</v>
-      </c>
-      <c r="D217" t="s">
-        <v>486</v>
       </c>
       <c r="E217">
         <v>2307.9548789999999</v>
@@ -11687,16 +11687,16 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>486</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>486</v>
+      </c>
+      <c r="D218" t="s">
         <v>487</v>
-      </c>
-      <c r="B218" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" t="s">
-        <v>487</v>
-      </c>
-      <c r="D218" t="s">
-        <v>488</v>
       </c>
       <c r="E218">
         <v>2279.6630300000002</v>
@@ -11728,16 +11728,16 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>488</v>
+      </c>
+      <c r="D219" t="s">
         <v>489</v>
-      </c>
-      <c r="B219" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" t="s">
-        <v>489</v>
-      </c>
-      <c r="D219" t="s">
-        <v>490</v>
       </c>
       <c r="E219">
         <v>2228.4188159999999</v>
@@ -11769,16 +11769,16 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>490</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>490</v>
+      </c>
+      <c r="D220" t="s">
         <v>491</v>
-      </c>
-      <c r="B220" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" t="s">
-        <v>491</v>
-      </c>
-      <c r="D220" t="s">
-        <v>492</v>
       </c>
       <c r="E220">
         <v>2218.1106450000002</v>
@@ -11810,16 +11810,16 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>492</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>492</v>
+      </c>
+      <c r="D221" t="s">
         <v>493</v>
-      </c>
-      <c r="B221" t="s">
-        <v>14</v>
-      </c>
-      <c r="C221" t="s">
-        <v>493</v>
-      </c>
-      <c r="D221" t="s">
-        <v>494</v>
       </c>
       <c r="E221">
         <v>2200.1455059999998</v>
@@ -11851,16 +11851,16 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>494</v>
+      </c>
+      <c r="D222" t="s">
         <v>495</v>
-      </c>
-      <c r="B222" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" t="s">
-        <v>495</v>
-      </c>
-      <c r="D222" t="s">
-        <v>496</v>
       </c>
       <c r="E222">
         <v>2269.540258</v>
@@ -11892,16 +11892,16 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>496</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>496</v>
+      </c>
+      <c r="D223" t="s">
         <v>497</v>
-      </c>
-      <c r="B223" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" t="s">
-        <v>497</v>
-      </c>
-      <c r="D223" t="s">
-        <v>498</v>
       </c>
       <c r="E223">
         <v>2171.2603810000001</v>
@@ -11933,16 +11933,16 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>498</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>498</v>
+      </c>
+      <c r="D224" t="s">
         <v>499</v>
-      </c>
-      <c r="B224" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" t="s">
-        <v>499</v>
-      </c>
-      <c r="D224" t="s">
-        <v>500</v>
       </c>
       <c r="E224">
         <v>2267.3525530000002</v>
@@ -11974,16 +11974,16 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>500</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>500</v>
+      </c>
+      <c r="D225" t="s">
         <v>501</v>
-      </c>
-      <c r="B225" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" t="s">
-        <v>501</v>
-      </c>
-      <c r="D225" t="s">
-        <v>502</v>
       </c>
       <c r="E225">
         <v>2264.3861729999999</v>
@@ -12015,16 +12015,16 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>502</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>502</v>
+      </c>
+      <c r="D226" t="s">
         <v>503</v>
-      </c>
-      <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" t="s">
-        <v>503</v>
-      </c>
-      <c r="D226" t="s">
-        <v>504</v>
       </c>
       <c r="E226">
         <v>2299.0186600000002</v>
@@ -12056,16 +12056,16 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>504</v>
+      </c>
+      <c r="D227" t="s">
         <v>505</v>
-      </c>
-      <c r="B227" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" t="s">
-        <v>505</v>
-      </c>
-      <c r="D227" t="s">
-        <v>506</v>
       </c>
       <c r="E227">
         <v>2325.7160800000001</v>
@@ -12097,16 +12097,16 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>506</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>506</v>
+      </c>
+      <c r="D228" t="s">
         <v>507</v>
-      </c>
-      <c r="B228" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" t="s">
-        <v>507</v>
-      </c>
-      <c r="D228" t="s">
-        <v>508</v>
       </c>
       <c r="E228">
         <v>2301.98504</v>
@@ -12138,16 +12138,16 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>508</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" t="s">
         <v>509</v>
-      </c>
-      <c r="B229" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" t="s">
-        <v>509</v>
-      </c>
-      <c r="D229" t="s">
-        <v>510</v>
       </c>
       <c r="E229">
         <v>2280.6271040000001</v>
@@ -12179,16 +12179,16 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>510</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>510</v>
+      </c>
+      <c r="D230" t="s">
         <v>511</v>
-      </c>
-      <c r="B230" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" t="s">
-        <v>511</v>
-      </c>
-      <c r="D230" t="s">
-        <v>512</v>
       </c>
       <c r="E230">
         <v>2385.6369559999998</v>
@@ -12220,16 +12220,16 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>512</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>512</v>
+      </c>
+      <c r="D231" t="s">
         <v>513</v>
-      </c>
-      <c r="B231" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" t="s">
-        <v>513</v>
-      </c>
-      <c r="D231" t="s">
-        <v>514</v>
       </c>
       <c r="E231">
         <v>2261.642272</v>
@@ -12261,16 +12261,16 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>514</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>514</v>
+      </c>
+      <c r="D232" t="s">
         <v>515</v>
-      </c>
-      <c r="B232" t="s">
-        <v>14</v>
-      </c>
-      <c r="C232" t="s">
-        <v>515</v>
-      </c>
-      <c r="D232" t="s">
-        <v>516</v>
       </c>
       <c r="E232">
         <v>2305.5446959999999</v>
@@ -12302,16 +12302,16 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>516</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>516</v>
+      </c>
+      <c r="D233" t="s">
         <v>517</v>
-      </c>
-      <c r="B233" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" t="s">
-        <v>517</v>
-      </c>
-      <c r="D233" t="s">
-        <v>518</v>
       </c>
       <c r="E233">
         <v>2285.9665879999998</v>
@@ -12343,16 +12343,16 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>518</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>518</v>
+      </c>
+      <c r="D234" t="s">
         <v>519</v>
-      </c>
-      <c r="B234" t="s">
-        <v>14</v>
-      </c>
-      <c r="C234" t="s">
-        <v>519</v>
-      </c>
-      <c r="D234" t="s">
-        <v>520</v>
       </c>
       <c r="E234">
         <v>2296.0522799999999</v>
@@ -12384,16 +12384,16 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>520</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>520</v>
+      </c>
+      <c r="D235" t="s">
         <v>521</v>
-      </c>
-      <c r="B235" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" t="s">
-        <v>521</v>
-      </c>
-      <c r="D235" t="s">
-        <v>522</v>
       </c>
       <c r="E235">
         <v>2340.7333779999999</v>
@@ -12425,16 +12425,16 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>522</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>522</v>
+      </c>
+      <c r="D236" t="s">
         <v>523</v>
-      </c>
-      <c r="B236" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" t="s">
-        <v>523</v>
-      </c>
-      <c r="D236" t="s">
-        <v>524</v>
       </c>
       <c r="E236">
         <v>2287.1160599999998</v>
@@ -12466,16 +12466,16 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>524</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>524</v>
+      </c>
+      <c r="D237" t="s">
         <v>525</v>
-      </c>
-      <c r="B237" t="s">
-        <v>14</v>
-      </c>
-      <c r="C237" t="s">
-        <v>525</v>
-      </c>
-      <c r="D237" t="s">
-        <v>526</v>
       </c>
       <c r="E237">
         <v>2276.4000120000001</v>
@@ -12507,16 +12507,16 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>526</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>526</v>
+      </c>
+      <c r="D238" t="s">
         <v>527</v>
-      </c>
-      <c r="B238" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" t="s">
-        <v>527</v>
-      </c>
-      <c r="D238" t="s">
-        <v>528</v>
       </c>
       <c r="E238">
         <v>2257.0443829999999</v>
@@ -12548,16 +12548,16 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>528</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>528</v>
+      </c>
+      <c r="D239" t="s">
         <v>529</v>
-      </c>
-      <c r="B239" t="s">
-        <v>14</v>
-      </c>
-      <c r="C239" t="s">
-        <v>529</v>
-      </c>
-      <c r="D239" t="s">
-        <v>530</v>
       </c>
       <c r="E239">
         <v>2330.6106070000001</v>
@@ -12589,16 +12589,16 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>530</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>530</v>
+      </c>
+      <c r="D240" t="s">
         <v>531</v>
-      </c>
-      <c r="B240" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" t="s">
-        <v>531</v>
-      </c>
-      <c r="D240" t="s">
-        <v>532</v>
       </c>
       <c r="E240">
         <v>2225.786153</v>
@@ -12630,16 +12630,16 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>532</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>532</v>
+      </c>
+      <c r="D241" t="s">
         <v>533</v>
-      </c>
-      <c r="B241" t="s">
-        <v>14</v>
-      </c>
-      <c r="C241" t="s">
-        <v>533</v>
-      </c>
-      <c r="D241" t="s">
-        <v>534</v>
       </c>
       <c r="E241">
         <v>2327.8296249999999</v>
@@ -12671,16 +12671,16 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>534</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>534</v>
+      </c>
+      <c r="D242" t="s">
         <v>535</v>
-      </c>
-      <c r="B242" t="s">
-        <v>14</v>
-      </c>
-      <c r="C242" t="s">
-        <v>535</v>
-      </c>
-      <c r="D242" t="s">
-        <v>536</v>
       </c>
       <c r="E242">
         <v>2325.048644</v>
@@ -12712,16 +12712,16 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>536</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>536</v>
+      </c>
+      <c r="D243" t="s">
         <v>537</v>
-      </c>
-      <c r="B243" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" t="s">
-        <v>537</v>
-      </c>
-      <c r="D243" t="s">
-        <v>538</v>
       </c>
       <c r="E243">
         <v>2393.7574209999998</v>
@@ -12753,16 +12753,16 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>538</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>538</v>
+      </c>
+      <c r="D244" t="s">
         <v>539</v>
-      </c>
-      <c r="B244" t="s">
-        <v>14</v>
-      </c>
-      <c r="C244" t="s">
-        <v>539</v>
-      </c>
-      <c r="D244" t="s">
-        <v>540</v>
       </c>
       <c r="E244">
         <v>2420.4548410000002</v>
@@ -12794,16 +12794,16 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>540</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>540</v>
+      </c>
+      <c r="D245" t="s">
         <v>541</v>
-      </c>
-      <c r="B245" t="s">
-        <v>14</v>
-      </c>
-      <c r="C245" t="s">
-        <v>541</v>
-      </c>
-      <c r="D245" t="s">
-        <v>542</v>
       </c>
       <c r="E245">
         <v>2396.130525</v>
@@ -12835,16 +12835,16 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>542</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>542</v>
+      </c>
+      <c r="D246" t="s">
         <v>543</v>
-      </c>
-      <c r="B246" t="s">
-        <v>14</v>
-      </c>
-      <c r="C246" t="s">
-        <v>543</v>
-      </c>
-      <c r="D246" t="s">
-        <v>544</v>
       </c>
       <c r="E246">
         <v>2393.7574209999998</v>
@@ -12876,16 +12876,16 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>544</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>544</v>
+      </c>
+      <c r="D247" t="s">
         <v>545</v>
-      </c>
-      <c r="B247" t="s">
-        <v>14</v>
-      </c>
-      <c r="C247" t="s">
-        <v>545</v>
-      </c>
-      <c r="D247" t="s">
-        <v>546</v>
       </c>
       <c r="E247">
         <v>2484.5286489999999</v>
@@ -12917,16 +12917,16 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>546</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" t="s">
+        <v>546</v>
+      </c>
+      <c r="D248" t="s">
         <v>547</v>
-      </c>
-      <c r="B248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C248" t="s">
-        <v>547</v>
-      </c>
-      <c r="D248" t="s">
-        <v>548</v>
       </c>
       <c r="E248">
         <v>2357.5675849999998</v>
@@ -12958,16 +12958,16 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>548</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>548</v>
+      </c>
+      <c r="D249" t="s">
         <v>549</v>
-      </c>
-      <c r="B249" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" t="s">
-        <v>549</v>
-      </c>
-      <c r="D249" t="s">
-        <v>550</v>
       </c>
       <c r="E249">
         <v>2401.4700090000001</v>
@@ -12999,16 +12999,16 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>550</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>550</v>
+      </c>
+      <c r="D250" t="s">
         <v>551</v>
-      </c>
-      <c r="B250" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" t="s">
-        <v>551</v>
-      </c>
-      <c r="D250" t="s">
-        <v>552</v>
       </c>
       <c r="E250">
         <v>2378.3322450000001</v>
@@ -13040,16 +13040,16 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>552</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s">
+        <v>552</v>
+      </c>
+      <c r="D251" t="s">
         <v>553</v>
-      </c>
-      <c r="B251" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" t="s">
-        <v>553</v>
-      </c>
-      <c r="D251" t="s">
-        <v>554</v>
       </c>
       <c r="E251">
         <v>2394.3506969999999</v>
@@ -13081,16 +13081,16 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>554</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" t="s">
+        <v>554</v>
+      </c>
+      <c r="D252" t="s">
         <v>555</v>
-      </c>
-      <c r="B252" t="s">
-        <v>14</v>
-      </c>
-      <c r="C252" t="s">
-        <v>555</v>
-      </c>
-      <c r="D252" t="s">
-        <v>556</v>
       </c>
       <c r="E252">
         <v>2356.1585540000001</v>
@@ -13122,16 +13122,16 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>556</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" t="s">
+        <v>556</v>
+      </c>
+      <c r="D253" t="s">
         <v>557</v>
-      </c>
-      <c r="B253" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" t="s">
-        <v>557</v>
-      </c>
-      <c r="D253" t="s">
-        <v>558</v>
       </c>
       <c r="E253">
         <v>2291.2689919999998</v>
@@ -13163,16 +13163,16 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>558</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>558</v>
+      </c>
+      <c r="D254" t="s">
         <v>559</v>
-      </c>
-      <c r="B254" t="s">
-        <v>14</v>
-      </c>
-      <c r="C254" t="s">
-        <v>559</v>
-      </c>
-      <c r="D254" t="s">
-        <v>560</v>
       </c>
       <c r="E254">
         <v>2279.774269</v>
@@ -13204,16 +13204,16 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>560</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" t="s">
+        <v>560</v>
+      </c>
+      <c r="D255" t="s">
         <v>561</v>
-      </c>
-      <c r="B255" t="s">
-        <v>14</v>
-      </c>
-      <c r="C255" t="s">
-        <v>561</v>
-      </c>
-      <c r="D255" t="s">
-        <v>562</v>
       </c>
       <c r="E255">
         <v>2257.637659</v>
@@ -13245,16 +13245,16 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>562</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" t="s">
+        <v>562</v>
+      </c>
+      <c r="D256" t="s">
         <v>563</v>
-      </c>
-      <c r="B256" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" t="s">
-        <v>563</v>
-      </c>
-      <c r="D256" t="s">
-        <v>564</v>
       </c>
       <c r="E256">
         <v>2344.8492310000001</v>
@@ -13286,16 +13286,16 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>564</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>564</v>
+      </c>
+      <c r="D257" t="s">
         <v>565</v>
-      </c>
-      <c r="B257" t="s">
-        <v>14</v>
-      </c>
-      <c r="C257" t="s">
-        <v>565</v>
-      </c>
-      <c r="D257" t="s">
-        <v>566</v>
       </c>
       <c r="E257">
         <v>2220.8545469999999</v>
@@ -13327,16 +13327,16 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>566</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>566</v>
+      </c>
+      <c r="D258" t="s">
         <v>567</v>
-      </c>
-      <c r="B258" t="s">
-        <v>14</v>
-      </c>
-      <c r="C258" t="s">
-        <v>567</v>
-      </c>
-      <c r="D258" t="s">
-        <v>568</v>
       </c>
       <c r="E258">
         <v>2340.1030230000001</v>
@@ -13368,16 +13368,16 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>568</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>568</v>
+      </c>
+      <c r="D259" t="s">
         <v>569</v>
-      </c>
-      <c r="B259" t="s">
-        <v>14</v>
-      </c>
-      <c r="C259" t="s">
-        <v>569</v>
-      </c>
-      <c r="D259" t="s">
-        <v>570</v>
       </c>
       <c r="E259">
         <v>2337.3220409999999</v>
@@ -13409,16 +13409,16 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>570</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" t="s">
+        <v>570</v>
+      </c>
+      <c r="D260" t="s">
         <v>571</v>
-      </c>
-      <c r="B260" t="s">
-        <v>14</v>
-      </c>
-      <c r="C260" t="s">
-        <v>571</v>
-      </c>
-      <c r="D260" t="s">
-        <v>572</v>
       </c>
       <c r="E260">
         <v>2400.6913340000001</v>
@@ -13450,16 +13450,16 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>572</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" t="s">
+        <v>572</v>
+      </c>
+      <c r="D261" t="s">
         <v>573</v>
-      </c>
-      <c r="B261" t="s">
-        <v>14</v>
-      </c>
-      <c r="C261" t="s">
-        <v>573</v>
-      </c>
-      <c r="D261" t="s">
-        <v>574</v>
       </c>
       <c r="E261">
         <v>2432.1349620000001</v>
@@ -13491,16 +13491,16 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>574</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>574</v>
+      </c>
+      <c r="D262" t="s">
         <v>575</v>
-      </c>
-      <c r="B262" t="s">
-        <v>14</v>
-      </c>
-      <c r="C262" t="s">
-        <v>575</v>
-      </c>
-      <c r="D262" t="s">
-        <v>576</v>
       </c>
       <c r="E262">
         <v>2403.0644379999999</v>
@@ -13532,16 +13532,16 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>576</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>576</v>
+      </c>
+      <c r="D263" t="s">
         <v>577</v>
-      </c>
-      <c r="B263" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" t="s">
-        <v>577</v>
-      </c>
-      <c r="D263" t="s">
-        <v>578</v>
       </c>
       <c r="E263">
         <v>2401.8778860000002</v>
@@ -13573,16 +13573,16 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>578</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>578</v>
+      </c>
+      <c r="D264" t="s">
         <v>579</v>
-      </c>
-      <c r="B264" t="s">
-        <v>14</v>
-      </c>
-      <c r="C264" t="s">
-        <v>579</v>
-      </c>
-      <c r="D264" t="s">
-        <v>580</v>
       </c>
       <c r="E264">
         <v>2478.4104900000002</v>
@@ -13614,16 +13614,16 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>580</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>580</v>
+      </c>
+      <c r="D265" t="s">
         <v>581</v>
-      </c>
-      <c r="B265" t="s">
-        <v>14</v>
-      </c>
-      <c r="C265" t="s">
-        <v>581</v>
-      </c>
-      <c r="D265" t="s">
-        <v>582</v>
       </c>
       <c r="E265">
         <v>2355.009082</v>
@@ -13655,16 +13655,16 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>582</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>582</v>
+      </c>
+      <c r="D266" t="s">
         <v>583</v>
-      </c>
-      <c r="B266" t="s">
-        <v>14</v>
-      </c>
-      <c r="C266" t="s">
-        <v>583</v>
-      </c>
-      <c r="D266" t="s">
-        <v>584</v>
       </c>
       <c r="E266">
         <v>2408.997198</v>
@@ -13696,16 +13696,16 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>584</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>584</v>
+      </c>
+      <c r="D267" t="s">
         <v>585</v>
-      </c>
-      <c r="B267" t="s">
-        <v>14</v>
-      </c>
-      <c r="C267" t="s">
-        <v>585</v>
-      </c>
-      <c r="D267" t="s">
-        <v>586</v>
       </c>
       <c r="E267">
         <v>2373.9939140000001</v>
@@ -13737,16 +13737,16 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>586</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>586</v>
+      </c>
+      <c r="D268" t="s">
         <v>587</v>
-      </c>
-      <c r="B268" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" t="s">
-        <v>587</v>
-      </c>
-      <c r="D268" t="s">
-        <v>588</v>
       </c>
       <c r="E268">
         <v>2395.9451260000001</v>
@@ -13778,16 +13778,16 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>588</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
         <v>589</v>
       </c>
-      <c r="B269" t="s">
-        <v>14</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>590</v>
-      </c>
-      <c r="D269" t="s">
-        <v>591</v>
       </c>
       <c r="E269">
         <v>1.55</v>
@@ -13819,16 +13819,16 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>591</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>591</v>
+      </c>
+      <c r="D270" t="s">
         <v>592</v>
-      </c>
-      <c r="B270" t="s">
-        <v>14</v>
-      </c>
-      <c r="C270" t="s">
-        <v>592</v>
-      </c>
-      <c r="D270" t="s">
-        <v>593</v>
       </c>
       <c r="E270">
         <v>1400</v>
@@ -13860,16 +13860,16 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>593</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>593</v>
+      </c>
+      <c r="D271" t="s">
         <v>594</v>
-      </c>
-      <c r="B271" t="s">
-        <v>14</v>
-      </c>
-      <c r="C271" t="s">
-        <v>594</v>
-      </c>
-      <c r="D271" t="s">
-        <v>595</v>
       </c>
       <c r="E271">
         <v>1092</v>
@@ -13901,16 +13901,16 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>595</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>595</v>
+      </c>
+      <c r="D272" t="s">
         <v>596</v>
-      </c>
-      <c r="B272" t="s">
-        <v>14</v>
-      </c>
-      <c r="C272" t="s">
-        <v>596</v>
-      </c>
-      <c r="D272" t="s">
-        <v>597</v>
       </c>
       <c r="E272">
         <v>756</v>
@@ -13942,16 +13942,16 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>597</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>597</v>
+      </c>
+      <c r="D273" t="s">
         <v>598</v>
-      </c>
-      <c r="B273" t="s">
-        <v>14</v>
-      </c>
-      <c r="C273" t="s">
-        <v>598</v>
-      </c>
-      <c r="D273" t="s">
-        <v>599</v>
       </c>
       <c r="E273">
         <v>800</v>
@@ -13983,16 +13983,16 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>599</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
         <v>600</v>
       </c>
-      <c r="B274" t="s">
-        <v>14</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>601</v>
-      </c>
-      <c r="D274" t="s">
-        <v>602</v>
       </c>
       <c r="E274">
         <v>609</v>
@@ -14024,16 +14024,16 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>602</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>602</v>
+      </c>
+      <c r="D275" t="s">
         <v>603</v>
-      </c>
-      <c r="B275" t="s">
-        <v>14</v>
-      </c>
-      <c r="C275" t="s">
-        <v>603</v>
-      </c>
-      <c r="D275" t="s">
-        <v>604</v>
       </c>
       <c r="E275">
         <v>1000</v>
@@ -14065,16 +14065,16 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>604</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
         <v>605</v>
       </c>
-      <c r="B276" t="s">
-        <v>14</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>606</v>
-      </c>
-      <c r="D276" t="s">
-        <v>607</v>
       </c>
       <c r="E276">
         <v>769</v>
@@ -14106,16 +14106,16 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>607</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" t="s">
+        <v>607</v>
+      </c>
+      <c r="D277" t="s">
         <v>608</v>
-      </c>
-      <c r="B277" t="s">
-        <v>14</v>
-      </c>
-      <c r="C277" t="s">
-        <v>608</v>
-      </c>
-      <c r="D277" t="s">
-        <v>609</v>
       </c>
       <c r="E277">
         <v>1.02</v>
@@ -14147,16 +14147,16 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>609</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>609</v>
+      </c>
+      <c r="D278" t="s">
         <v>610</v>
-      </c>
-      <c r="B278" t="s">
-        <v>14</v>
-      </c>
-      <c r="C278" t="s">
-        <v>610</v>
-      </c>
-      <c r="D278" t="s">
-        <v>611</v>
       </c>
       <c r="E278">
         <v>1.43</v>
@@ -14188,16 +14188,16 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>611</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" t="s">
+        <v>611</v>
+      </c>
+      <c r="D279" t="s">
         <v>612</v>
-      </c>
-      <c r="B279" t="s">
-        <v>14</v>
-      </c>
-      <c r="C279" t="s">
-        <v>612</v>
-      </c>
-      <c r="D279" t="s">
-        <v>613</v>
       </c>
       <c r="E279">
         <v>2.8</v>
@@ -14229,16 +14229,16 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>613</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>613</v>
+      </c>
+      <c r="D280" t="s">
         <v>614</v>
-      </c>
-      <c r="B280" t="s">
-        <v>14</v>
-      </c>
-      <c r="C280" t="s">
-        <v>614</v>
-      </c>
-      <c r="D280" t="s">
-        <v>615</v>
       </c>
       <c r="E280">
         <v>1.3</v>
@@ -14270,16 +14270,16 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>615</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>615</v>
+      </c>
+      <c r="D281" t="s">
         <v>616</v>
-      </c>
-      <c r="B281" t="s">
-        <v>14</v>
-      </c>
-      <c r="C281" t="s">
-        <v>616</v>
-      </c>
-      <c r="D281" t="s">
-        <v>617</v>
       </c>
       <c r="E281">
         <v>1084</v>
@@ -14311,16 +14311,16 @@
     </row>
     <row r="282" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>617</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
         <v>618</v>
       </c>
-      <c r="B282" t="s">
-        <v>14</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="D282" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="E282">
         <v>0.48379815300000001</v>
@@ -14352,16 +14352,16 @@
     </row>
     <row r="283" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>620</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
         <v>621</v>
       </c>
-      <c r="B283" t="s">
-        <v>14</v>
-      </c>
-      <c r="C283" t="s">
+      <c r="D283" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="E283">
         <v>26.979199999999999</v>
@@ -14393,16 +14393,16 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>623</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
         <v>624</v>
       </c>
-      <c r="B284" t="s">
-        <v>14</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>625</v>
-      </c>
-      <c r="D284" t="s">
-        <v>626</v>
       </c>
       <c r="E284">
         <v>0.183</v>
@@ -14434,16 +14434,16 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>626</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s">
+        <v>626</v>
+      </c>
+      <c r="D285" t="s">
         <v>627</v>
-      </c>
-      <c r="B285" t="s">
-        <v>14</v>
-      </c>
-      <c r="C285" t="s">
-        <v>627</v>
-      </c>
-      <c r="D285" t="s">
-        <v>628</v>
       </c>
       <c r="E285">
         <v>0.28999999999999998</v>
@@ -14472,16 +14472,16 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>628</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>628</v>
+      </c>
+      <c r="D286" t="s">
         <v>629</v>
-      </c>
-      <c r="B286" t="s">
-        <v>14</v>
-      </c>
-      <c r="C286" t="s">
-        <v>629</v>
-      </c>
-      <c r="D286" t="s">
-        <v>630</v>
       </c>
       <c r="E286">
         <v>449</v>
@@ -14513,16 +14513,16 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>630</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>630</v>
+      </c>
+      <c r="D287" t="s">
         <v>631</v>
-      </c>
-      <c r="B287" t="s">
-        <v>14</v>
-      </c>
-      <c r="C287" t="s">
-        <v>631</v>
-      </c>
-      <c r="D287" t="s">
-        <v>632</v>
       </c>
       <c r="E287">
         <v>975</v>
@@ -14554,16 +14554,16 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>632</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>632</v>
+      </c>
+      <c r="D288" t="s">
         <v>633</v>
-      </c>
-      <c r="B288" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" t="s">
-        <v>633</v>
-      </c>
-      <c r="D288" t="s">
-        <v>634</v>
       </c>
       <c r="E288">
         <v>1235</v>

--- a/references/background_data/a1-a3.xlsx
+++ b/references/background_data/a1-a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A7B2AA-7806-4278-A3A2-B09EAE6A4F70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226999FD-9A06-4A7A-BA63-BC692B693B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14448,6 +14448,9 @@
       <c r="E285">
         <v>0.28999999999999998</v>
       </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
       <c r="G285">
         <v>3.0800000000000001E-2</v>
       </c>

--- a/references/background_data/a1-a3.xlsx
+++ b/references/background_data/a1-a3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226999FD-9A06-4A7A-BA63-BC692B693B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76393A6-216A-477E-B80D-FCA05FD542FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="640">
   <si>
     <t>Name_generic</t>
   </si>
@@ -1933,6 +1933,15 @@
   </si>
   <si>
     <t>stored_carbon_mfg</t>
+  </si>
+  <si>
+    <t>Light wood framing, SPF</t>
+  </si>
+  <si>
+    <t>Domestic softwood, US, AWC - EPD</t>
+  </si>
+  <si>
+    <t>Kiln-dried and planed softwood dimensional lumber for standard framing or planking. Industry-wide EPD from the American Wood Council.</t>
   </si>
 </sst>
 </file>
@@ -2777,14 +2786,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M288"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="M289" sqref="A289:M289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="135.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14596,7 +14606,49 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>637</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>638</v>
+      </c>
+      <c r="D289" t="s">
+        <v>639</v>
+      </c>
+      <c r="E289">
+        <v>433.57</v>
+      </c>
+      <c r="F289">
+        <v>1.44</v>
+      </c>
+      <c r="G289">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="H289" s="1">
+        <v>7.5599999999999994E-5</v>
+      </c>
+      <c r="I289">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J289">
+        <v>-1.8380000000000001</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289" s="1">
+        <v>7.9799999999999995E-12</v>
+      </c>
+      <c r="M289">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>